--- a/2.2 REUN.468323.001_Control_Board/Исходники/РЕУН.468323.001 ПЭ Плата управления.xlsx
+++ b/2.2 REUN.468323.001_Control_Board/Исходники/РЕУН.468323.001 ПЭ Плата управления.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasilii.podlesnyi\Documents\MedRobotics_Laser\2.2 REUN.468323.001_Control_Board\Исходники\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naval\OneDrive\Документы\MedRobotics_Laser\2.2 REUN.468323.001_Control_Board\Исходники\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36188A19-6DDC-4399-BE54-A0DB13BC79AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0BD072-EF78-4413-90A5-6C3B53042F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="946" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="946" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="список" sheetId="1" r:id="rId1"/>
@@ -936,7 +936,7 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -1020,13 +1020,6 @@
     <font>
       <i/>
       <sz val="7"/>
-      <color indexed="8"/>
-      <name val="GOST Type AU"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="GOST Type AU"/>
       <charset val="204"/>
@@ -1149,12 +1142,6 @@
     </font>
     <font>
       <i/>
-      <sz val="6"/>
-      <color indexed="8"/>
-      <name val="GOST Type AU"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="GOST Type AU"/>
@@ -1164,6 +1151,13 @@
       <sz val="16"/>
       <color indexed="8"/>
       <name val="GOST Type AU"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="GOST Type AU"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1427,44 +1421,44 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="4" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1537,31 +1531,85 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1570,73 +1618,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1648,106 +1642,106 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1759,7 +1753,7 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1771,10 +1765,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1822,7 +1816,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1840,7 +1834,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1885,19 +1879,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1930,10 +1924,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1987,22 +1981,22 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2032,130 +2026,129 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Исполнение (SWR-Спецификация)" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Код_продукции (SWR-Спецификация)" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Количество1_на_изделие (SWR-Спецификация)" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2165,6 +2158,7 @@
     <cellStyle name="Куда_входит (SWR-Спецификация)" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Наименование (SWR-Спецификация)" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Обозначение_документа_на_поставку (SWR-Спецификация)" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Поставщик (SWR-Спецификация)" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Примечание (SWR-Спецификация)" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
@@ -2498,7 +2492,7 @@
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
@@ -2532,7 +2526,7 @@
     <col min="33" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2630,7 +2624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -2701,7 +2695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="3:15" ht="20.399999999999999">
+    <row r="39" spans="3:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="C39" s="61"/>
       <c r="D39" s="61"/>
       <c r="E39" s="61"/>
@@ -2741,7 +2735,7 @@
       <selection activeCell="T23" sqref="T23:AM23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.5546875" style="23" customWidth="1"/>
     <col min="3" max="4" width="3.44140625" style="23" customWidth="1"/>
@@ -2788,7 +2782,7 @@
     <col min="57" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="42"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -2839,7 +2833,7 @@
       <c r="AV1" s="44"/>
       <c r="AW1" s="45"/>
     </row>
-    <row r="2" spans="1:49" ht="5.85" customHeight="1">
+    <row r="2" spans="1:49" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
       <c r="B2" s="211"/>
       <c r="C2" s="219"/>
@@ -2892,7 +2886,7 @@
       <c r="AV2" s="221"/>
       <c r="AW2" s="47"/>
     </row>
-    <row r="3" spans="1:49" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="211"/>
       <c r="C3" s="219"/>
@@ -2943,7 +2937,7 @@
       <c r="AV3" s="224"/>
       <c r="AW3" s="47"/>
     </row>
-    <row r="4" spans="1:49" ht="11.25" customHeight="1">
+    <row r="4" spans="1:49" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="211"/>
       <c r="C4" s="219"/>
@@ -3008,7 +3002,7 @@
       <c r="AV4" s="225"/>
       <c r="AW4" s="47"/>
     </row>
-    <row r="5" spans="1:49" ht="11.25" customHeight="1">
+    <row r="5" spans="1:49" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="211"/>
       <c r="C5" s="219"/>
@@ -3059,7 +3053,7 @@
       <c r="AV5" s="225"/>
       <c r="AW5" s="47"/>
     </row>
-    <row r="6" spans="1:49" ht="22.5" customHeight="1">
+    <row r="6" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
       <c r="B6" s="211"/>
       <c r="C6" s="219"/>
@@ -3118,7 +3112,7 @@
       <c r="AV6" s="225"/>
       <c r="AW6" s="47"/>
     </row>
-    <row r="7" spans="1:49" ht="22.5" customHeight="1">
+    <row r="7" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="211"/>
       <c r="C7" s="219"/>
@@ -3169,7 +3163,7 @@
       <c r="AV7" s="225"/>
       <c r="AW7" s="47"/>
     </row>
-    <row r="8" spans="1:49" ht="22.5" customHeight="1">
+    <row r="8" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
       <c r="B8" s="211"/>
       <c r="C8" s="219"/>
@@ -3220,7 +3214,7 @@
       <c r="AV8" s="218"/>
       <c r="AW8" s="47"/>
     </row>
-    <row r="9" spans="1:49" ht="25.5" hidden="1" customHeight="1">
+    <row r="9" spans="1:49" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46"/>
       <c r="B9" s="211"/>
       <c r="C9" s="219"/>
@@ -3271,7 +3265,7 @@
       <c r="AV9" s="202"/>
       <c r="AW9" s="47"/>
     </row>
-    <row r="10" spans="1:49" ht="22.5" customHeight="1">
+    <row r="10" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="211"/>
       <c r="C10" s="219"/>
@@ -3322,7 +3316,7 @@
       <c r="AV10" s="202"/>
       <c r="AW10" s="47"/>
     </row>
-    <row r="11" spans="1:49" ht="22.5" customHeight="1">
+    <row r="11" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="211"/>
       <c r="C11" s="219"/>
@@ -3373,7 +3367,7 @@
       <c r="AV11" s="202"/>
       <c r="AW11" s="47"/>
     </row>
-    <row r="12" spans="1:49" ht="22.5" customHeight="1">
+    <row r="12" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="211"/>
       <c r="C12" s="219"/>
@@ -3424,7 +3418,7 @@
       <c r="AV12" s="202"/>
       <c r="AW12" s="47"/>
     </row>
-    <row r="13" spans="1:49" ht="9" hidden="1" customHeight="1">
+    <row r="13" spans="1:49" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="211"/>
       <c r="C13" s="219"/>
@@ -3475,7 +3469,7 @@
       <c r="AV13" s="49"/>
       <c r="AW13" s="47"/>
     </row>
-    <row r="14" spans="1:49" ht="8.85" hidden="1" customHeight="1">
+    <row r="14" spans="1:49" ht="8.85" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="211"/>
       <c r="C14" s="219"/>
@@ -3526,7 +3520,7 @@
       <c r="AV14" s="49"/>
       <c r="AW14" s="47"/>
     </row>
-    <row r="15" spans="1:49" ht="11.25" hidden="1" customHeight="1">
+    <row r="15" spans="1:49" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="211"/>
       <c r="C15" s="219"/>
@@ -3577,7 +3571,7 @@
       <c r="AV15" s="49"/>
       <c r="AW15" s="47"/>
     </row>
-    <row r="16" spans="1:49" ht="11.25" hidden="1" customHeight="1">
+    <row r="16" spans="1:49" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46"/>
       <c r="B16" s="211"/>
       <c r="C16" s="219"/>
@@ -3628,7 +3622,7 @@
       <c r="AV16" s="49"/>
       <c r="AW16" s="47"/>
     </row>
-    <row r="17" spans="1:49" ht="8.25" customHeight="1">
+    <row r="17" spans="1:49" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="211"/>
       <c r="C17" s="219"/>
@@ -3679,7 +3673,7 @@
       <c r="AV17" s="202"/>
       <c r="AW17" s="47"/>
     </row>
-    <row r="18" spans="1:49" ht="14.1" customHeight="1">
+    <row r="18" spans="1:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
       <c r="B18" s="211"/>
       <c r="C18" s="212"/>
@@ -3730,7 +3724,7 @@
       <c r="AV18" s="202"/>
       <c r="AW18" s="47"/>
     </row>
-    <row r="19" spans="1:49" ht="11.25" customHeight="1">
+    <row r="19" spans="1:49" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46"/>
       <c r="B19" s="211"/>
       <c r="C19" s="212"/>
@@ -3781,7 +3775,7 @@
       <c r="AV19" s="202"/>
       <c r="AW19" s="47"/>
     </row>
-    <row r="20" spans="1:49" ht="11.25" customHeight="1">
+    <row r="20" spans="1:49" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
       <c r="B20" s="211"/>
       <c r="C20" s="212"/>
@@ -3832,7 +3826,7 @@
       <c r="AV20" s="202"/>
       <c r="AW20" s="47"/>
     </row>
-    <row r="21" spans="1:49" ht="22.5" customHeight="1">
+    <row r="21" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
       <c r="B21" s="211"/>
       <c r="C21" s="212"/>
@@ -3883,7 +3877,7 @@
       <c r="AV21" s="202"/>
       <c r="AW21" s="47"/>
     </row>
-    <row r="22" spans="1:49" ht="22.5" customHeight="1">
+    <row r="22" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
       <c r="B22" s="211"/>
       <c r="C22" s="212"/>
@@ -3934,7 +3928,7 @@
       <c r="AV22" s="202"/>
       <c r="AW22" s="47"/>
     </row>
-    <row r="23" spans="1:49" ht="22.5" customHeight="1">
+    <row r="23" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
       <c r="B23" s="211"/>
       <c r="C23" s="212"/>
@@ -3985,7 +3979,7 @@
       <c r="AV23" s="202"/>
       <c r="AW23" s="47"/>
     </row>
-    <row r="24" spans="1:49" ht="22.5" customHeight="1">
+    <row r="24" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
       <c r="B24" s="211"/>
       <c r="C24" s="212"/>
@@ -4036,7 +4030,7 @@
       <c r="AV24" s="202"/>
       <c r="AW24" s="47"/>
     </row>
-    <row r="25" spans="1:49" ht="22.5" customHeight="1">
+    <row r="25" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" s="211"/>
       <c r="C25" s="212"/>
@@ -4087,7 +4081,7 @@
       <c r="AV25" s="202"/>
       <c r="AW25" s="47"/>
     </row>
-    <row r="26" spans="1:49" ht="22.5" customHeight="1">
+    <row r="26" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" s="211"/>
       <c r="C26" s="212"/>
@@ -4138,7 +4132,7 @@
       <c r="AV26" s="202"/>
       <c r="AW26" s="47"/>
     </row>
-    <row r="27" spans="1:49" ht="22.5" customHeight="1">
+    <row r="27" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" s="50"/>
       <c r="C27" s="51"/>
@@ -4189,7 +4183,7 @@
       <c r="AV27" s="202"/>
       <c r="AW27" s="47"/>
     </row>
-    <row r="28" spans="1:49" ht="22.5" customHeight="1">
+    <row r="28" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" s="50"/>
       <c r="C28" s="51"/>
@@ -4240,7 +4234,7 @@
       <c r="AV28" s="202"/>
       <c r="AW28" s="47"/>
     </row>
-    <row r="29" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="29" spans="1:49" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" s="50"/>
       <c r="C29" s="51"/>
@@ -4291,7 +4285,7 @@
       <c r="AV29" s="202"/>
       <c r="AW29" s="47"/>
     </row>
-    <row r="30" spans="1:49" ht="6" customHeight="1">
+    <row r="30" spans="1:49" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="210"/>
       <c r="B30" s="205" t="s">
         <v>49</v>
@@ -4344,7 +4338,7 @@
       <c r="AV30" s="202"/>
       <c r="AW30" s="47"/>
     </row>
-    <row r="31" spans="1:49" ht="22.5" customHeight="1">
+    <row r="31" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="210"/>
       <c r="B31" s="205"/>
       <c r="C31" s="193"/>
@@ -4395,7 +4389,7 @@
       <c r="AV31" s="202"/>
       <c r="AW31" s="47"/>
     </row>
-    <row r="32" spans="1:49" ht="22.5" customHeight="1">
+    <row r="32" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="210"/>
       <c r="B32" s="205"/>
       <c r="C32" s="193"/>
@@ -4446,7 +4440,7 @@
       <c r="AV32" s="202"/>
       <c r="AW32" s="47"/>
     </row>
-    <row r="33" spans="1:49" ht="22.5" customHeight="1">
+    <row r="33" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="210"/>
       <c r="B33" s="205"/>
       <c r="C33" s="193"/>
@@ -4497,7 +4491,7 @@
       <c r="AV33" s="202"/>
       <c r="AW33" s="47"/>
     </row>
-    <row r="34" spans="1:49" ht="22.5" customHeight="1">
+    <row r="34" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="210"/>
       <c r="B34" s="205"/>
       <c r="C34" s="193"/>
@@ -4548,7 +4542,7 @@
       <c r="AV34" s="202"/>
       <c r="AW34" s="47"/>
     </row>
-    <row r="35" spans="1:49" ht="3.6" customHeight="1">
+    <row r="35" spans="1:49" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="210"/>
       <c r="B35" s="205"/>
       <c r="C35" s="193"/>
@@ -4599,7 +4593,7 @@
       <c r="AV35" s="202"/>
       <c r="AW35" s="47"/>
     </row>
-    <row r="36" spans="1:49" ht="19.5" customHeight="1">
+    <row r="36" spans="1:49" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="210"/>
       <c r="B36" s="205" t="s">
         <v>50</v>
@@ -4652,7 +4646,7 @@
       <c r="AV36" s="202"/>
       <c r="AW36" s="47"/>
     </row>
-    <row r="37" spans="1:49" ht="22.5" customHeight="1">
+    <row r="37" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="210"/>
       <c r="B37" s="205"/>
       <c r="C37" s="193"/>
@@ -4703,7 +4697,7 @@
       <c r="AV37" s="202"/>
       <c r="AW37" s="47"/>
     </row>
-    <row r="38" spans="1:49" ht="22.5" customHeight="1">
+    <row r="38" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="210"/>
       <c r="B38" s="205"/>
       <c r="C38" s="193"/>
@@ -4754,7 +4748,7 @@
       <c r="AV38" s="202"/>
       <c r="AW38" s="47"/>
     </row>
-    <row r="39" spans="1:49" ht="6.15" customHeight="1">
+    <row r="39" spans="1:49" ht="6.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="210"/>
       <c r="B39" s="205"/>
       <c r="C39" s="193"/>
@@ -4805,7 +4799,7 @@
       <c r="AV39" s="202"/>
       <c r="AW39" s="47"/>
     </row>
-    <row r="40" spans="1:49" ht="17.25" customHeight="1">
+    <row r="40" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="209"/>
       <c r="B40" s="203" t="s">
         <v>51</v>
@@ -4858,7 +4852,7 @@
       <c r="AV40" s="202"/>
       <c r="AW40" s="47"/>
     </row>
-    <row r="41" spans="1:49" ht="22.5" customHeight="1">
+    <row r="41" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="209"/>
       <c r="B41" s="203"/>
       <c r="C41" s="193"/>
@@ -4909,7 +4903,7 @@
       <c r="AV41" s="202"/>
       <c r="AW41" s="47"/>
     </row>
-    <row r="42" spans="1:49" ht="22.5" customHeight="1">
+    <row r="42" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="209"/>
       <c r="B42" s="203"/>
       <c r="C42" s="193"/>
@@ -4960,7 +4954,7 @@
       <c r="AV42" s="202"/>
       <c r="AW42" s="47"/>
     </row>
-    <row r="43" spans="1:49" ht="5.85" customHeight="1">
+    <row r="43" spans="1:49" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="209"/>
       <c r="B43" s="203"/>
       <c r="C43" s="193"/>
@@ -5011,7 +5005,7 @@
       <c r="AV43" s="202"/>
       <c r="AW43" s="47"/>
     </row>
-    <row r="44" spans="1:49" ht="17.25" customHeight="1">
+    <row r="44" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="81"/>
       <c r="B44" s="205" t="s">
         <v>49</v>
@@ -5064,7 +5058,7 @@
       <c r="AV44" s="202"/>
       <c r="AW44" s="47"/>
     </row>
-    <row r="45" spans="1:49" ht="22.5" customHeight="1">
+    <row r="45" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="81"/>
       <c r="B45" s="205"/>
       <c r="C45" s="193"/>
@@ -5115,7 +5109,7 @@
       <c r="AV45" s="202"/>
       <c r="AW45" s="47"/>
     </row>
-    <row r="46" spans="1:49" ht="22.5" customHeight="1">
+    <row r="46" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="81"/>
       <c r="B46" s="205"/>
       <c r="C46" s="193"/>
@@ -5166,7 +5160,7 @@
       <c r="AV46" s="202"/>
       <c r="AW46" s="47"/>
     </row>
-    <row r="47" spans="1:49" ht="22.5" customHeight="1">
+    <row r="47" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81"/>
       <c r="B47" s="205"/>
       <c r="C47" s="193"/>
@@ -5217,7 +5211,7 @@
       <c r="AV47" s="202"/>
       <c r="AW47" s="47"/>
     </row>
-    <row r="48" spans="1:49" ht="14.4" customHeight="1">
+    <row r="48" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="81"/>
       <c r="B48" s="205"/>
       <c r="C48" s="193"/>
@@ -5268,7 +5262,7 @@
       <c r="AV48" s="202"/>
       <c r="AW48" s="47"/>
     </row>
-    <row r="49" spans="1:49" ht="9" customHeight="1">
+    <row r="49" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="72"/>
       <c r="B49" s="203" t="s">
         <v>52</v>
@@ -5321,7 +5315,7 @@
       <c r="AV49" s="202"/>
       <c r="AW49" s="47"/>
     </row>
-    <row r="50" spans="1:49" ht="22.5" customHeight="1">
+    <row r="50" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="72"/>
       <c r="B50" s="203"/>
       <c r="C50" s="193"/>
@@ -5372,7 +5366,7 @@
       <c r="AV50" s="204"/>
       <c r="AW50" s="47"/>
     </row>
-    <row r="51" spans="1:49" ht="14.25" customHeight="1">
+    <row r="51" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="72"/>
       <c r="B51" s="203"/>
       <c r="C51" s="193"/>
@@ -5427,7 +5421,7 @@
       <c r="AV51" s="190"/>
       <c r="AW51" s="47"/>
     </row>
-    <row r="52" spans="1:49" ht="6.15" customHeight="1">
+    <row r="52" spans="1:49" ht="6.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="72"/>
       <c r="B52" s="203"/>
       <c r="C52" s="193"/>
@@ -5478,7 +5472,7 @@
       <c r="AV52" s="190"/>
       <c r="AW52" s="47"/>
     </row>
-    <row r="53" spans="1:49" ht="9" customHeight="1">
+    <row r="53" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="72"/>
       <c r="B53" s="203"/>
       <c r="C53" s="193"/>
@@ -5531,7 +5525,7 @@
       <c r="AV53" s="193"/>
       <c r="AW53" s="47"/>
     </row>
-    <row r="54" spans="1:49" ht="14.4" customHeight="1">
+    <row r="54" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="72"/>
       <c r="B54" s="203"/>
       <c r="C54" s="193"/>
@@ -5592,7 +5586,7 @@
       <c r="AV54" s="193"/>
       <c r="AW54" s="47"/>
     </row>
-    <row r="55" spans="1:49" ht="18" customHeight="1">
+    <row r="55" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="40"/>
       <c r="C55" s="40"/>
@@ -6015,7 +6009,7 @@
       <selection activeCell="AN42" sqref="AN42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.5546875" style="23" customWidth="1"/>
     <col min="3" max="4" width="3.44140625" style="23" customWidth="1"/>
@@ -6044,7 +6038,7 @@
     <col min="57" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="18.75" customHeight="1">
+    <row r="1" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79"/>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -6095,7 +6089,7 @@
       <c r="AV1" s="82"/>
       <c r="AW1" s="83"/>
     </row>
-    <row r="2" spans="1:49" ht="31.65" customHeight="1">
+    <row r="2" spans="1:49" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="81"/>
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
@@ -6146,7 +6140,7 @@
       <c r="AV2" s="26"/>
       <c r="AW2" s="84"/>
     </row>
-    <row r="3" spans="1:49" ht="14.1" customHeight="1">
+    <row r="3" spans="1:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="81"/>
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
@@ -6197,7 +6191,7 @@
       <c r="AV3" s="29"/>
       <c r="AW3" s="84"/>
     </row>
-    <row r="4" spans="1:49" ht="14.1" customHeight="1">
+    <row r="4" spans="1:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81"/>
       <c r="B4" s="75"/>
       <c r="C4" s="75"/>
@@ -6250,7 +6244,7 @@
       <c r="AV4" s="29"/>
       <c r="AW4" s="84"/>
     </row>
-    <row r="5" spans="1:49" ht="23.1" customHeight="1">
+    <row r="5" spans="1:49" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="81"/>
       <c r="B5" s="75"/>
       <c r="C5" s="75"/>
@@ -6301,7 +6295,7 @@
       <c r="AV5" s="29"/>
       <c r="AW5" s="84"/>
     </row>
-    <row r="6" spans="1:49" ht="6.15" customHeight="1">
+    <row r="6" spans="1:49" ht="6.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="81"/>
       <c r="B6" s="75"/>
       <c r="C6" s="75"/>
@@ -6354,7 +6348,7 @@
       <c r="AV6" s="29"/>
       <c r="AW6" s="84"/>
     </row>
-    <row r="7" spans="1:49" ht="14.25" customHeight="1">
+    <row r="7" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81"/>
       <c r="B7" s="75"/>
       <c r="C7" s="75"/>
@@ -6405,7 +6399,7 @@
       <c r="AV7" s="29"/>
       <c r="AW7" s="84"/>
     </row>
-    <row r="8" spans="1:49" ht="14.25" customHeight="1">
+    <row r="8" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="81"/>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -6460,7 +6454,7 @@
       <c r="AV8" s="29"/>
       <c r="AW8" s="84"/>
     </row>
-    <row r="9" spans="1:49" ht="8.4" customHeight="1">
+    <row r="9" spans="1:49" ht="8.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81"/>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -6511,7 +6505,7 @@
       <c r="AV9" s="29"/>
       <c r="AW9" s="84"/>
     </row>
-    <row r="10" spans="1:49" ht="9" customHeight="1">
+    <row r="10" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81"/>
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>
@@ -6562,7 +6556,7 @@
       <c r="AV10" s="29"/>
       <c r="AW10" s="84"/>
     </row>
-    <row r="11" spans="1:49" ht="14.25" customHeight="1">
+    <row r="11" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="81"/>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -6617,7 +6611,7 @@
       <c r="AV11" s="29"/>
       <c r="AW11" s="84"/>
     </row>
-    <row r="12" spans="1:49" ht="9" customHeight="1">
+    <row r="12" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="81"/>
       <c r="B12" s="75"/>
       <c r="C12" s="75"/>
@@ -6668,7 +6662,7 @@
       <c r="AV12" s="29"/>
       <c r="AW12" s="84"/>
     </row>
-    <row r="13" spans="1:49" ht="14.25" customHeight="1">
+    <row r="13" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="81"/>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
@@ -6719,7 +6713,7 @@
       <c r="AV13" s="29"/>
       <c r="AW13" s="84"/>
     </row>
-    <row r="14" spans="1:49" ht="9" customHeight="1">
+    <row r="14" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="81"/>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -6770,7 +6764,7 @@
       <c r="AV14" s="29"/>
       <c r="AW14" s="84"/>
     </row>
-    <row r="15" spans="1:49" ht="14.4" customHeight="1">
+    <row r="15" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="81"/>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -6821,7 +6815,7 @@
       <c r="AV15" s="29"/>
       <c r="AW15" s="84"/>
     </row>
-    <row r="16" spans="1:49" ht="9" customHeight="1">
+    <row r="16" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="81"/>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -6872,7 +6866,7 @@
       <c r="AV16" s="29"/>
       <c r="AW16" s="84"/>
     </row>
-    <row r="17" spans="1:49" ht="14.25" customHeight="1">
+    <row r="17" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="81"/>
       <c r="B17" s="75"/>
       <c r="C17" s="75"/>
@@ -6923,7 +6917,7 @@
       <c r="AV17" s="29"/>
       <c r="AW17" s="84"/>
     </row>
-    <row r="18" spans="1:49" ht="9" customHeight="1">
+    <row r="18" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="81"/>
       <c r="B18" s="75"/>
       <c r="C18" s="75"/>
@@ -6974,7 +6968,7 @@
       <c r="AV18" s="29"/>
       <c r="AW18" s="84"/>
     </row>
-    <row r="19" spans="1:49" ht="14.25" customHeight="1">
+    <row r="19" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="81"/>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
@@ -7025,7 +7019,7 @@
       <c r="AV19" s="29"/>
       <c r="AW19" s="84"/>
     </row>
-    <row r="20" spans="1:49" ht="9" customHeight="1">
+    <row r="20" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="81"/>
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
@@ -7076,7 +7070,7 @@
       <c r="AV20" s="33"/>
       <c r="AW20" s="84"/>
     </row>
-    <row r="21" spans="1:49" ht="14.25" customHeight="1">
+    <row r="21" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="81"/>
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
@@ -7127,7 +7121,7 @@
       <c r="AV21" s="33"/>
       <c r="AW21" s="84"/>
     </row>
-    <row r="22" spans="1:49" ht="9" customHeight="1">
+    <row r="22" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="81"/>
       <c r="B22" s="75"/>
       <c r="C22" s="75"/>
@@ -7178,7 +7172,7 @@
       <c r="AV22" s="33"/>
       <c r="AW22" s="84"/>
     </row>
-    <row r="23" spans="1:49" ht="14.25" customHeight="1">
+    <row r="23" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="81"/>
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
@@ -7229,7 +7223,7 @@
       <c r="AV23" s="33"/>
       <c r="AW23" s="84"/>
     </row>
-    <row r="24" spans="1:49" ht="9" customHeight="1">
+    <row r="24" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
       <c r="B24" s="75"/>
       <c r="C24" s="75"/>
@@ -7280,7 +7274,7 @@
       <c r="AV24" s="33"/>
       <c r="AW24" s="84"/>
     </row>
-    <row r="25" spans="1:49" ht="14.25" customHeight="1">
+    <row r="25" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81"/>
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
@@ -7331,7 +7325,7 @@
       <c r="AV25" s="33"/>
       <c r="AW25" s="84"/>
     </row>
-    <row r="26" spans="1:49" ht="9" customHeight="1">
+    <row r="26" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81"/>
       <c r="B26" s="75"/>
       <c r="C26" s="75"/>
@@ -7382,7 +7376,7 @@
       <c r="AV26" s="33"/>
       <c r="AW26" s="84"/>
     </row>
-    <row r="27" spans="1:49" ht="14.25" customHeight="1">
+    <row r="27" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81"/>
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
@@ -7433,7 +7427,7 @@
       <c r="AV27" s="33"/>
       <c r="AW27" s="84"/>
     </row>
-    <row r="28" spans="1:49" ht="9" customHeight="1">
+    <row r="28" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81"/>
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
@@ -7486,7 +7480,7 @@
       <c r="AV28" s="90"/>
       <c r="AW28" s="84"/>
     </row>
-    <row r="29" spans="1:49" ht="2.85" customHeight="1">
+    <row r="29" spans="1:49" ht="2.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81"/>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
@@ -7537,7 +7531,7 @@
       <c r="AV29" s="90"/>
       <c r="AW29" s="84"/>
     </row>
-    <row r="30" spans="1:49" ht="11.25" customHeight="1">
+    <row r="30" spans="1:49" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="81"/>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
@@ -7588,7 +7582,7 @@
       <c r="AV30" s="90"/>
       <c r="AW30" s="84"/>
     </row>
-    <row r="31" spans="1:49" ht="9" customHeight="1">
+    <row r="31" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="81"/>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
@@ -7639,7 +7633,7 @@
       <c r="AV31" s="90"/>
       <c r="AW31" s="84"/>
     </row>
-    <row r="32" spans="1:49" ht="14.25" customHeight="1">
+    <row r="32" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="81"/>
       <c r="B32" s="75"/>
       <c r="C32" s="75"/>
@@ -7692,7 +7686,7 @@
       <c r="AV32" s="93"/>
       <c r="AW32" s="84"/>
     </row>
-    <row r="33" spans="1:49" ht="9" customHeight="1">
+    <row r="33" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="81"/>
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
@@ -7743,7 +7737,7 @@
       <c r="AV33" s="93"/>
       <c r="AW33" s="84"/>
     </row>
-    <row r="34" spans="1:49" ht="14.25" customHeight="1">
+    <row r="34" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="81"/>
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
@@ -7796,7 +7790,7 @@
       <c r="AV34" s="71"/>
       <c r="AW34" s="84"/>
     </row>
-    <row r="35" spans="1:49" ht="6.15" customHeight="1">
+    <row r="35" spans="1:49" ht="6.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="81"/>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -7847,7 +7841,7 @@
       <c r="AV35" s="71"/>
       <c r="AW35" s="84"/>
     </row>
-    <row r="36" spans="1:49" ht="3.6" customHeight="1">
+    <row r="36" spans="1:49" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
       <c r="B36" s="76" t="s">
         <v>49</v>
@@ -7900,7 +7894,7 @@
       <c r="AV36" s="71"/>
       <c r="AW36" s="84"/>
     </row>
-    <row r="37" spans="1:49" ht="14.25" customHeight="1">
+    <row r="37" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
       <c r="B37" s="77"/>
       <c r="C37" s="63"/>
@@ -7951,7 +7945,7 @@
       <c r="AV37" s="71"/>
       <c r="AW37" s="84"/>
     </row>
-    <row r="38" spans="1:49" ht="9" customHeight="1">
+    <row r="38" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
       <c r="B38" s="77"/>
       <c r="C38" s="63"/>
@@ -8002,7 +7996,7 @@
       <c r="AV38" s="71"/>
       <c r="AW38" s="84"/>
     </row>
-    <row r="39" spans="1:49" ht="14.25" customHeight="1">
+    <row r="39" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
       <c r="B39" s="77"/>
       <c r="C39" s="63"/>
@@ -8053,7 +8047,7 @@
       <c r="AV39" s="33"/>
       <c r="AW39" s="84"/>
     </row>
-    <row r="40" spans="1:49" ht="9" customHeight="1">
+    <row r="40" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
       <c r="B40" s="77"/>
       <c r="C40" s="63"/>
@@ -8104,7 +8098,7 @@
       <c r="AV40" s="33"/>
       <c r="AW40" s="84"/>
     </row>
-    <row r="41" spans="1:49" ht="14.25" customHeight="1">
+    <row r="41" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
       <c r="B41" s="77"/>
       <c r="C41" s="63"/>
@@ -8155,7 +8149,7 @@
       <c r="AV41" s="33"/>
       <c r="AW41" s="84"/>
     </row>
-    <row r="42" spans="1:49" ht="9" customHeight="1">
+    <row r="42" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
       <c r="B42" s="77"/>
       <c r="C42" s="63"/>
@@ -8206,7 +8200,7 @@
       <c r="AV42" s="33"/>
       <c r="AW42" s="84"/>
     </row>
-    <row r="43" spans="1:49" ht="14.25" customHeight="1">
+    <row r="43" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
       <c r="B43" s="77"/>
       <c r="C43" s="63"/>
@@ -8257,7 +8251,7 @@
       <c r="AV43" s="33"/>
       <c r="AW43" s="84"/>
     </row>
-    <row r="44" spans="1:49" ht="9" customHeight="1">
+    <row r="44" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
       <c r="B44" s="77"/>
       <c r="C44" s="63"/>
@@ -8308,7 +8302,7 @@
       <c r="AV44" s="33"/>
       <c r="AW44" s="84"/>
     </row>
-    <row r="45" spans="1:49" ht="2.85" customHeight="1">
+    <row r="45" spans="1:49" ht="2.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
       <c r="B45" s="78"/>
       <c r="C45" s="64"/>
@@ -8359,7 +8353,7 @@
       <c r="AV45" s="33"/>
       <c r="AW45" s="84"/>
     </row>
-    <row r="46" spans="1:49" ht="6.15" customHeight="1">
+    <row r="46" spans="1:49" ht="6.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
       <c r="B46" s="76" t="s">
         <v>50</v>
@@ -8412,7 +8406,7 @@
       <c r="AV46" s="33"/>
       <c r="AW46" s="84"/>
     </row>
-    <row r="47" spans="1:49" ht="14.25" customHeight="1">
+    <row r="47" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
       <c r="B47" s="77"/>
       <c r="C47" s="63"/>
@@ -8463,7 +8457,7 @@
       <c r="AV47" s="33"/>
       <c r="AW47" s="84"/>
     </row>
-    <row r="48" spans="1:49" ht="14.25" customHeight="1">
+    <row r="48" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
       <c r="B48" s="77"/>
       <c r="C48" s="63"/>
@@ -8514,7 +8508,7 @@
       <c r="AV48" s="33"/>
       <c r="AW48" s="84"/>
     </row>
-    <row r="49" spans="1:49" ht="9" customHeight="1">
+    <row r="49" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
       <c r="B49" s="77"/>
       <c r="C49" s="63"/>
@@ -8565,7 +8559,7 @@
       <c r="AV49" s="33"/>
       <c r="AW49" s="84"/>
     </row>
-    <row r="50" spans="1:49" ht="14.25" customHeight="1">
+    <row r="50" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
       <c r="B50" s="77"/>
       <c r="C50" s="63"/>
@@ -8616,7 +8610,7 @@
       <c r="AV50" s="33"/>
       <c r="AW50" s="84"/>
     </row>
-    <row r="51" spans="1:49" ht="14.4" customHeight="1">
+    <row r="51" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
       <c r="B51" s="77"/>
       <c r="C51" s="63"/>
@@ -8667,7 +8661,7 @@
       <c r="AV51" s="33"/>
       <c r="AW51" s="84"/>
     </row>
-    <row r="52" spans="1:49" ht="9" customHeight="1">
+    <row r="52" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
       <c r="B52" s="78"/>
       <c r="C52" s="64"/>
@@ -8718,7 +8712,7 @@
       <c r="AV52" s="33"/>
       <c r="AW52" s="84"/>
     </row>
-    <row r="53" spans="1:49" ht="14.25" customHeight="1">
+    <row r="53" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="72"/>
       <c r="B53" s="73" t="s">
         <v>51</v>
@@ -8771,7 +8765,7 @@
       <c r="AV53" s="33"/>
       <c r="AW53" s="84"/>
     </row>
-    <row r="54" spans="1:49" ht="14.25" customHeight="1">
+    <row r="54" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="72"/>
       <c r="B54" s="72"/>
       <c r="C54" s="63"/>
@@ -8822,7 +8816,7 @@
       <c r="AV54" s="33"/>
       <c r="AW54" s="84"/>
     </row>
-    <row r="55" spans="1:49" ht="9" customHeight="1">
+    <row r="55" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="72"/>
       <c r="B55" s="72"/>
       <c r="C55" s="63"/>
@@ -8873,7 +8867,7 @@
       <c r="AV55" s="33"/>
       <c r="AW55" s="84"/>
     </row>
-    <row r="56" spans="1:49" ht="14.25" customHeight="1">
+    <row r="56" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="72"/>
       <c r="B56" s="72"/>
       <c r="C56" s="63"/>
@@ -8924,7 +8918,7 @@
       <c r="AV56" s="33"/>
       <c r="AW56" s="84"/>
     </row>
-    <row r="57" spans="1:49" ht="9" customHeight="1">
+    <row r="57" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="72"/>
       <c r="B57" s="72"/>
       <c r="C57" s="63"/>
@@ -8975,7 +8969,7 @@
       <c r="AV57" s="33"/>
       <c r="AW57" s="84"/>
     </row>
-    <row r="58" spans="1:49" ht="11.25" customHeight="1">
+    <row r="58" spans="1:49" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="72"/>
       <c r="B58" s="74"/>
       <c r="C58" s="64"/>
@@ -9026,7 +9020,7 @@
       <c r="AV58" s="33"/>
       <c r="AW58" s="84"/>
     </row>
-    <row r="59" spans="1:49" ht="3.6" customHeight="1">
+    <row r="59" spans="1:49" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="63"/>
       <c r="B59" s="76" t="s">
         <v>49</v>
@@ -9079,7 +9073,7 @@
       <c r="AV59" s="33"/>
       <c r="AW59" s="84"/>
     </row>
-    <row r="60" spans="1:49" ht="14.4" customHeight="1">
+    <row r="60" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="63"/>
       <c r="B60" s="77"/>
       <c r="C60" s="63"/>
@@ -9130,7 +9124,7 @@
       <c r="AV60" s="33"/>
       <c r="AW60" s="84"/>
     </row>
-    <row r="61" spans="1:49" ht="14.25" customHeight="1">
+    <row r="61" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="63"/>
       <c r="B61" s="77"/>
       <c r="C61" s="63"/>
@@ -9181,7 +9175,7 @@
       <c r="AV61" s="33"/>
       <c r="AW61" s="84"/>
     </row>
-    <row r="62" spans="1:49" ht="9" customHeight="1">
+    <row r="62" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="63"/>
       <c r="B62" s="77"/>
       <c r="C62" s="63"/>
@@ -9232,7 +9226,7 @@
       <c r="AV62" s="33"/>
       <c r="AW62" s="84"/>
     </row>
-    <row r="63" spans="1:49" ht="9" customHeight="1">
+    <row r="63" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="63"/>
       <c r="B63" s="77"/>
       <c r="C63" s="63"/>
@@ -9283,7 +9277,7 @@
       <c r="AV63" s="33"/>
       <c r="AW63" s="84"/>
     </row>
-    <row r="64" spans="1:49" ht="9" customHeight="1">
+    <row r="64" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="63"/>
       <c r="B64" s="77"/>
       <c r="C64" s="63"/>
@@ -9334,7 +9328,7 @@
       <c r="AV64" s="33"/>
       <c r="AW64" s="84"/>
     </row>
-    <row r="65" spans="1:49" ht="8.85" customHeight="1">
+    <row r="65" spans="1:49" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="63"/>
       <c r="B65" s="77"/>
       <c r="C65" s="63"/>
@@ -9385,7 +9379,7 @@
       <c r="AV65" s="33"/>
       <c r="AW65" s="84"/>
     </row>
-    <row r="66" spans="1:49" ht="9" customHeight="1">
+    <row r="66" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="63"/>
       <c r="B66" s="77"/>
       <c r="C66" s="63"/>
@@ -9436,7 +9430,7 @@
       <c r="AV66" s="33"/>
       <c r="AW66" s="84"/>
     </row>
-    <row r="67" spans="1:49" ht="14.25" customHeight="1">
+    <row r="67" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="63"/>
       <c r="B67" s="77"/>
       <c r="C67" s="63"/>
@@ -9487,7 +9481,7 @@
       <c r="AV67" s="33"/>
       <c r="AW67" s="84"/>
     </row>
-    <row r="68" spans="1:49" ht="6.15" customHeight="1">
+    <row r="68" spans="1:49" ht="6.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="63"/>
       <c r="B68" s="78"/>
       <c r="C68" s="64"/>
@@ -9538,7 +9532,7 @@
       <c r="AV68" s="33"/>
       <c r="AW68" s="84"/>
     </row>
-    <row r="69" spans="1:49" ht="3.6" customHeight="1">
+    <row r="69" spans="1:49" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="72"/>
       <c r="B69" s="73" t="s">
         <v>52</v>
@@ -9591,7 +9585,7 @@
       <c r="AV69" s="33"/>
       <c r="AW69" s="84"/>
     </row>
-    <row r="70" spans="1:49" ht="25.5" customHeight="1">
+    <row r="70" spans="1:49" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="72"/>
       <c r="B70" s="72"/>
       <c r="C70" s="63"/>
@@ -9642,7 +9636,7 @@
       <c r="AV70" s="33"/>
       <c r="AW70" s="84"/>
     </row>
-    <row r="71" spans="1:49" ht="14.4" customHeight="1">
+    <row r="71" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="72"/>
       <c r="B71" s="72"/>
       <c r="C71" s="63"/>
@@ -9693,7 +9687,7 @@
       <c r="AV71" s="33"/>
       <c r="AW71" s="84"/>
     </row>
-    <row r="72" spans="1:49" ht="6.15" customHeight="1">
+    <row r="72" spans="1:49" ht="6.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="72"/>
       <c r="B72" s="72"/>
       <c r="C72" s="63"/>
@@ -9744,7 +9738,7 @@
       <c r="AV72" s="33"/>
       <c r="AW72" s="84"/>
     </row>
-    <row r="73" spans="1:49" ht="9" customHeight="1">
+    <row r="73" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="72"/>
       <c r="B73" s="72"/>
       <c r="C73" s="63"/>
@@ -9795,7 +9789,7 @@
       <c r="AV73" s="33"/>
       <c r="AW73" s="84"/>
     </row>
-    <row r="74" spans="1:49" ht="14.4" customHeight="1">
+    <row r="74" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="72"/>
       <c r="B74" s="74"/>
       <c r="C74" s="64"/>
@@ -9846,7 +9840,7 @@
       <c r="AV74" s="38"/>
       <c r="AW74" s="84"/>
     </row>
-    <row r="75" spans="1:49" ht="17.399999999999999">
+    <row r="75" spans="1:49" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="40"/>
       <c r="C75" s="40"/>
@@ -9947,7 +9941,7 @@
     <mergeCell ref="C59:C68"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9958,13 +9952,13 @@
   </sheetPr>
   <dimension ref="A1:AY177"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I29" sqref="I29:U29"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7:U7"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26:M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.88671875" style="12" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="17" customWidth="1"/>
@@ -9993,7 +9987,7 @@
     <col min="31" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="42.75" customHeight="1">
+    <row r="1" spans="2:51" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="126" t="s">
         <v>47</v>
       </c>
@@ -10036,7 +10030,7 @@
       <c r="AA1" s="138"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="2:51" ht="26.1" customHeight="1">
+    <row r="2" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="126"/>
       <c r="C2" s="126"/>
       <c r="D2" s="6"/>
@@ -10064,7 +10058,7 @@
       <c r="Z2" s="138"/>
       <c r="AA2" s="138"/>
     </row>
-    <row r="3" spans="2:51" ht="26.1" customHeight="1">
+    <row r="3" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="126"/>
       <c r="C3" s="126"/>
       <c r="D3" s="6"/>
@@ -10092,7 +10086,7 @@
       <c r="Z3" s="110"/>
       <c r="AA3" s="111"/>
     </row>
-    <row r="4" spans="2:51" ht="26.1" customHeight="1">
+    <row r="4" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="126"/>
       <c r="C4" s="126"/>
       <c r="D4" s="6"/>
@@ -10122,7 +10116,7 @@
       <c r="Z4" s="110"/>
       <c r="AA4" s="111"/>
     </row>
-    <row r="5" spans="2:51" s="7" customFormat="1" ht="25.5" customHeight="1">
+    <row r="5" spans="2:51" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="126"/>
       <c r="C5" s="126"/>
       <c r="D5" s="6"/>
@@ -10173,7 +10167,7 @@
       <c r="AX5" s="94"/>
       <c r="AY5" s="94"/>
     </row>
-    <row r="6" spans="2:51" ht="30.75" customHeight="1">
+    <row r="6" spans="2:51" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="126"/>
       <c r="C6" s="126"/>
       <c r="D6" s="6"/>
@@ -10232,7 +10226,7 @@
       <c r="AX6" s="94"/>
       <c r="AY6" s="94"/>
     </row>
-    <row r="7" spans="2:51" ht="26.1" customHeight="1">
+    <row r="7" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
         <v>48</v>
       </c>
@@ -10290,7 +10284,7 @@
       <c r="AX7" s="94"/>
       <c r="AY7" s="94"/>
     </row>
-    <row r="8" spans="2:51" ht="26.1" customHeight="1">
+    <row r="8" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="126"/>
       <c r="C8" s="126"/>
       <c r="D8" s="6"/>
@@ -10349,7 +10343,7 @@
       <c r="AX8" s="94"/>
       <c r="AY8" s="94"/>
     </row>
-    <row r="9" spans="2:51" ht="26.1" customHeight="1">
+    <row r="9" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="126"/>
       <c r="C9" s="126"/>
       <c r="D9" s="6"/>
@@ -10402,7 +10396,7 @@
       <c r="AX9" s="94"/>
       <c r="AY9" s="94"/>
     </row>
-    <row r="10" spans="2:51" ht="26.1" customHeight="1">
+    <row r="10" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="126"/>
       <c r="C10" s="126"/>
       <c r="D10" s="6"/>
@@ -10453,7 +10447,7 @@
       <c r="AX10" s="94"/>
       <c r="AY10" s="94"/>
     </row>
-    <row r="11" spans="2:51" ht="26.1" customHeight="1">
+    <row r="11" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="126"/>
       <c r="C11" s="126"/>
       <c r="D11" s="6"/>
@@ -10504,7 +10498,7 @@
       <c r="AX11" s="94"/>
       <c r="AY11" s="94"/>
     </row>
-    <row r="12" spans="2:51" ht="26.1" customHeight="1">
+    <row r="12" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="126"/>
       <c r="C12" s="126"/>
       <c r="D12" s="6"/>
@@ -10557,7 +10551,7 @@
       <c r="AX12" s="94"/>
       <c r="AY12" s="94"/>
     </row>
-    <row r="13" spans="2:51" ht="26.1" customHeight="1">
+    <row r="13" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="126"/>
       <c r="C13" s="126"/>
       <c r="D13" s="6"/>
@@ -10616,7 +10610,7 @@
       <c r="AX13" s="94"/>
       <c r="AY13" s="94"/>
     </row>
-    <row r="14" spans="2:51" ht="26.1" customHeight="1">
+    <row r="14" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="6"/>
@@ -10675,7 +10669,7 @@
       <c r="AX14" s="94"/>
       <c r="AY14" s="94"/>
     </row>
-    <row r="15" spans="2:51" ht="26.1" customHeight="1">
+    <row r="15" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="6"/>
@@ -10734,7 +10728,7 @@
       <c r="AX15" s="94"/>
       <c r="AY15" s="94"/>
     </row>
-    <row r="16" spans="2:51" ht="26.1" customHeight="1">
+    <row r="16" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="126" t="s">
         <v>49</v>
       </c>
@@ -10798,7 +10792,7 @@
       <c r="AX16" s="94"/>
       <c r="AY16" s="94"/>
     </row>
-    <row r="17" spans="1:51" ht="26.1" customHeight="1">
+    <row r="17" spans="1:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="126"/>
       <c r="C17" s="158"/>
       <c r="D17" s="6"/>
@@ -10857,7 +10851,7 @@
       <c r="AX17" s="94"/>
       <c r="AY17" s="94"/>
     </row>
-    <row r="18" spans="1:51" ht="26.1" customHeight="1">
+    <row r="18" spans="1:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="126"/>
       <c r="C18" s="158"/>
       <c r="D18" s="6"/>
@@ -10916,7 +10910,7 @@
       <c r="AX18" s="94"/>
       <c r="AY18" s="94"/>
     </row>
-    <row r="19" spans="1:51" ht="26.1" customHeight="1">
+    <row r="19" spans="1:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="126"/>
       <c r="C19" s="158"/>
       <c r="D19" s="6"/>
@@ -10975,7 +10969,7 @@
       <c r="AX19" s="94"/>
       <c r="AY19" s="94"/>
     </row>
-    <row r="20" spans="1:51" ht="26.1" customHeight="1">
+    <row r="20" spans="1:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="126" t="s">
         <v>50</v>
       </c>
@@ -11039,7 +11033,7 @@
       <c r="AX20" s="94"/>
       <c r="AY20" s="94"/>
     </row>
-    <row r="21" spans="1:51" ht="26.1" customHeight="1">
+    <row r="21" spans="1:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="126"/>
       <c r="C21" s="126"/>
       <c r="D21" s="6"/>
@@ -11098,7 +11092,7 @@
       <c r="AX21" s="94"/>
       <c r="AY21" s="94"/>
     </row>
-    <row r="22" spans="1:51" ht="26.1" customHeight="1">
+    <row r="22" spans="1:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="126"/>
       <c r="C22" s="126"/>
       <c r="D22" s="6"/>
@@ -11157,7 +11151,7 @@
       <c r="AX22" s="94"/>
       <c r="AY22" s="94"/>
     </row>
-    <row r="23" spans="1:51" ht="26.1" customHeight="1">
+    <row r="23" spans="1:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="126" t="s">
         <v>51</v>
       </c>
@@ -11221,7 +11215,7 @@
       <c r="AX23" s="94"/>
       <c r="AY23" s="94"/>
     </row>
-    <row r="24" spans="1:51" ht="26.1" customHeight="1">
+    <row r="24" spans="1:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>58</v>
       </c>
@@ -11283,7 +11277,7 @@
       <c r="AX24" s="94"/>
       <c r="AY24" s="94"/>
     </row>
-    <row r="25" spans="1:51" ht="8.1" customHeight="1">
+    <row r="25" spans="1:51" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="100"/>
       <c r="B25" s="126"/>
       <c r="C25" s="126"/>
@@ -11312,7 +11306,7 @@
       <c r="Z25" s="160"/>
       <c r="AA25" s="161"/>
     </row>
-    <row r="26" spans="1:51" ht="14.1" customHeight="1">
+    <row r="26" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="100"/>
       <c r="B26" s="126"/>
       <c r="C26" s="126"/>
@@ -11347,7 +11341,7 @@
       <c r="Z26" s="123"/>
       <c r="AA26" s="123"/>
     </row>
-    <row r="27" spans="1:51" ht="30" customHeight="1">
+    <row r="27" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="100"/>
       <c r="B27" s="126" t="s">
         <v>49</v>
@@ -11381,7 +11375,7 @@
       <c r="Z27" s="123"/>
       <c r="AA27" s="123"/>
     </row>
-    <row r="28" spans="1:51" ht="24.6" customHeight="1">
+    <row r="28" spans="1:51" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="100"/>
       <c r="B28" s="126"/>
       <c r="C28" s="158"/>
@@ -11413,7 +11407,7 @@
       <c r="Z28" s="123"/>
       <c r="AA28" s="123"/>
     </row>
-    <row r="29" spans="1:51" ht="15" customHeight="1">
+    <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="126"/>
       <c r="C29" s="158"/>
@@ -11454,7 +11448,7 @@
       <c r="Z29" s="146"/>
       <c r="AA29" s="147"/>
     </row>
-    <row r="30" spans="1:51" ht="15" customHeight="1">
+    <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="100" t="s">
         <v>57</v>
       </c>
@@ -11477,7 +11471,7 @@
       </c>
       <c r="K30" s="121"/>
       <c r="L30" s="124">
-        <v>45085</v>
+        <v>45138</v>
       </c>
       <c r="M30" s="124"/>
       <c r="N30" s="148"/>
@@ -11495,7 +11489,7 @@
       <c r="Z30" s="149"/>
       <c r="AA30" s="150"/>
     </row>
-    <row r="31" spans="1:51" ht="15" customHeight="1">
+    <row r="31" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="100"/>
       <c r="B31" s="126"/>
       <c r="C31" s="158"/>
@@ -11534,7 +11528,7 @@
       <c r="Z31" s="152"/>
       <c r="AA31" s="153"/>
     </row>
-    <row r="32" spans="1:51" ht="15" customHeight="1">
+    <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="100"/>
       <c r="B32" s="126" t="s">
         <v>52</v>
@@ -11558,7 +11552,7 @@
       </c>
       <c r="K32" s="121"/>
       <c r="L32" s="124">
-        <v>45085</v>
+        <v>45138</v>
       </c>
       <c r="M32" s="124"/>
       <c r="N32" s="101" t="str">
@@ -11585,7 +11579,7 @@
       </c>
       <c r="AA32" s="121"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1">
+    <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="100"/>
       <c r="B33" s="126"/>
       <c r="C33" s="126"/>
@@ -11604,7 +11598,7 @@
       </c>
       <c r="K33" s="121"/>
       <c r="L33" s="124">
-        <v>45085</v>
+        <v>45138</v>
       </c>
       <c r="M33" s="124"/>
       <c r="N33" s="101"/>
@@ -11629,7 +11623,7 @@
       </c>
       <c r="AA33" s="121"/>
     </row>
-    <row r="34" spans="1:30" ht="15" customHeight="1">
+    <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="100"/>
       <c r="B34" s="126"/>
       <c r="C34" s="126"/>
@@ -11666,7 +11660,7 @@
       <c r="Z34" s="170"/>
       <c r="AA34" s="170"/>
     </row>
-    <row r="35" spans="1:30" ht="15" customHeight="1">
+    <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="100"/>
       <c r="B35" s="126"/>
       <c r="C35" s="126"/>
@@ -11685,7 +11679,7 @@
       </c>
       <c r="K35" s="121"/>
       <c r="L35" s="124">
-        <v>45085</v>
+        <v>45138</v>
       </c>
       <c r="M35" s="124"/>
       <c r="N35" s="103" t="s">
@@ -11705,7 +11699,7 @@
       <c r="Z35" s="170"/>
       <c r="AA35" s="170"/>
     </row>
-    <row r="36" spans="1:30" ht="15" customHeight="1">
+    <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="126"/>
       <c r="C36" s="126"/>
       <c r="D36" s="168" t="s">
@@ -11723,7 +11717,7 @@
       </c>
       <c r="K36" s="121"/>
       <c r="L36" s="124">
-        <v>45085</v>
+        <v>45138</v>
       </c>
       <c r="M36" s="124"/>
       <c r="N36" s="106"/>
@@ -11741,7 +11735,7 @@
       <c r="Z36" s="170"/>
       <c r="AA36" s="170"/>
     </row>
-    <row r="37" spans="1:30" ht="15" customHeight="1">
+    <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="119"/>
       <c r="C37" s="119"/>
       <c r="D37" s="119"/>
@@ -11773,7 +11767,7 @@
       <c r="Z37" s="120"/>
       <c r="AA37" s="120"/>
     </row>
-    <row r="38" spans="1:30" ht="42.9" customHeight="1">
+    <row r="38" spans="1:30" ht="42.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="E38" s="12"/>
@@ -11798,7 +11792,7 @@
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="1:30" ht="26.1" customHeight="1">
+    <row r="39" spans="1:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="E39" s="12"/>
@@ -11828,7 +11822,7 @@
       <c r="AC39" s="94"/>
       <c r="AD39" s="94"/>
     </row>
-    <row r="40" spans="1:30" ht="26.1" customHeight="1">
+    <row r="40" spans="1:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="E40" s="12"/>
@@ -11858,7 +11852,7 @@
       <c r="AC40" s="94"/>
       <c r="AD40" s="94"/>
     </row>
-    <row r="41" spans="1:30" ht="26.1" customHeight="1">
+    <row r="41" spans="1:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="E41" s="12"/>
@@ -11888,7 +11882,7 @@
       <c r="AC41" s="94"/>
       <c r="AD41" s="94"/>
     </row>
-    <row r="42" spans="1:30" ht="26.1" customHeight="1">
+    <row r="42" spans="1:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="E42" s="12"/>
@@ -11918,7 +11912,7 @@
       <c r="AC42" s="94"/>
       <c r="AD42" s="94"/>
     </row>
-    <row r="43" spans="1:30" ht="26.1" customHeight="1">
+    <row r="43" spans="1:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="E43" s="12"/>
@@ -11948,7 +11942,7 @@
       <c r="AC43" s="94"/>
       <c r="AD43" s="94"/>
     </row>
-    <row r="44" spans="1:30" ht="26.1" customHeight="1">
+    <row r="44" spans="1:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="E44" s="12"/>
@@ -11978,7 +11972,7 @@
       <c r="AC44" s="94"/>
       <c r="AD44" s="94"/>
     </row>
-    <row r="45" spans="1:30" ht="26.1" customHeight="1">
+    <row r="45" spans="1:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="E45" s="12"/>
@@ -12008,7 +12002,7 @@
       <c r="AC45" s="94"/>
       <c r="AD45" s="94"/>
     </row>
-    <row r="46" spans="1:30" ht="26.1" customHeight="1">
+    <row r="46" spans="1:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="E46" s="12"/>
@@ -12038,7 +12032,7 @@
       <c r="AC46" s="94"/>
       <c r="AD46" s="94"/>
     </row>
-    <row r="47" spans="1:30" ht="26.1" customHeight="1">
+    <row r="47" spans="1:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="E47" s="12"/>
@@ -12068,7 +12062,7 @@
       <c r="AC47" s="94"/>
       <c r="AD47" s="94"/>
     </row>
-    <row r="48" spans="1:30" ht="26.1" customHeight="1">
+    <row r="48" spans="1:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="E48" s="12"/>
@@ -12098,7 +12092,7 @@
       <c r="AC48" s="94"/>
       <c r="AD48" s="94"/>
     </row>
-    <row r="49" spans="2:30" ht="26.1" customHeight="1">
+    <row r="49" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="E49" s="12"/>
@@ -12128,7 +12122,7 @@
       <c r="AC49" s="94"/>
       <c r="AD49" s="94"/>
     </row>
-    <row r="50" spans="2:30" ht="26.1" customHeight="1">
+    <row r="50" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="E50" s="12"/>
@@ -12158,7 +12152,7 @@
       <c r="AC50" s="94"/>
       <c r="AD50" s="94"/>
     </row>
-    <row r="51" spans="2:30" ht="26.1" customHeight="1">
+    <row r="51" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="E51" s="12"/>
@@ -12188,7 +12182,7 @@
       <c r="AC51" s="94"/>
       <c r="AD51" s="94"/>
     </row>
-    <row r="52" spans="2:30" ht="26.1" customHeight="1">
+    <row r="52" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="E52" s="12"/>
@@ -12218,7 +12212,7 @@
       <c r="AC52" s="94"/>
       <c r="AD52" s="94"/>
     </row>
-    <row r="53" spans="2:30" ht="26.1" customHeight="1">
+    <row r="53" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="E53" s="12"/>
@@ -12248,7 +12242,7 @@
       <c r="AC53" s="94"/>
       <c r="AD53" s="94"/>
     </row>
-    <row r="54" spans="2:30" ht="26.1" customHeight="1">
+    <row r="54" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="E54" s="12"/>
@@ -12278,7 +12272,7 @@
       <c r="AC54" s="94"/>
       <c r="AD54" s="94"/>
     </row>
-    <row r="55" spans="2:30" ht="26.1" customHeight="1">
+    <row r="55" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="E55" s="12"/>
@@ -12303,7 +12297,7 @@
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="2:30" ht="26.1" customHeight="1">
+    <row r="56" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="E56" s="12"/>
@@ -12328,7 +12322,7 @@
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="2:30" ht="26.1" customHeight="1">
+    <row r="57" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="E57" s="12"/>
@@ -12353,7 +12347,7 @@
       <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="2:30" ht="26.1" customHeight="1">
+    <row r="58" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="E58" s="12"/>
@@ -12378,7 +12372,7 @@
       <c r="Z58" s="12"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="2:30" ht="26.1" customHeight="1">
+    <row r="59" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="E59" s="12"/>
@@ -12403,7 +12397,7 @@
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="2:30" ht="26.1" customHeight="1">
+    <row r="60" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="E60" s="12"/>
@@ -12428,7 +12422,7 @@
       <c r="Z60" s="12"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="2:30" ht="26.1" customHeight="1">
+    <row r="61" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="E61" s="12"/>
@@ -12453,7 +12447,7 @@
       <c r="Z61" s="12"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="2:30" ht="26.1" customHeight="1">
+    <row r="62" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="E62" s="12"/>
@@ -12478,7 +12472,7 @@
       <c r="Z62" s="12"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="2:30" ht="26.1" customHeight="1">
+    <row r="63" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="E63" s="12"/>
@@ -12503,7 +12497,7 @@
       <c r="Z63" s="12"/>
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="2:30" ht="26.1" customHeight="1">
+    <row r="64" spans="2:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="E64" s="12"/>
@@ -12528,7 +12522,7 @@
       <c r="Z64" s="12"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="2:27" ht="26.1" customHeight="1">
+    <row r="65" spans="2:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="E65" s="12"/>
@@ -12553,7 +12547,7 @@
       <c r="Z65" s="12"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="2:27" ht="26.1" customHeight="1">
+    <row r="66" spans="2:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
@@ -12579,7 +12573,7 @@
       <c r="Z66" s="12"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="2:27" ht="26.1" customHeight="1">
+    <row r="67" spans="2:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -12605,19 +12599,19 @@
       <c r="Z67" s="12"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="2:27" s="18" customFormat="1" ht="15" customHeight="1"/>
-    <row r="69" spans="2:27" s="18" customFormat="1" ht="6" customHeight="1"/>
-    <row r="70" spans="2:27" s="18" customFormat="1" ht="9" customHeight="1">
+    <row r="68" spans="2:27" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:27" s="18" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:27" s="18" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
     </row>
-    <row r="71" spans="2:27" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="2:27" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
     </row>
-    <row r="72" spans="2:27" ht="15" customHeight="1">
+    <row r="72" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="E72" s="12"/>
@@ -12642,7 +12636,7 @@
       <c r="Z72" s="12"/>
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="2:27" ht="42.75" customHeight="1">
+    <row r="73" spans="2:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="E73" s="12"/>
@@ -12667,7 +12661,7 @@
       <c r="Z73" s="12"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="2:27" ht="26.1" customHeight="1">
+    <row r="74" spans="2:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="E74" s="12"/>
@@ -12692,7 +12686,7 @@
       <c r="Z74" s="12"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="2:27" ht="26.1" customHeight="1">
+    <row r="75" spans="2:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="E75" s="12"/>
@@ -12717,7 +12711,7 @@
       <c r="Z75" s="12"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="2:27" ht="26.1" customHeight="1">
+    <row r="76" spans="2:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="E76" s="12"/>
@@ -12742,7 +12736,7 @@
       <c r="Z76" s="12"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="2:27" ht="26.1" customHeight="1">
+    <row r="77" spans="2:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="E77" s="12"/>
@@ -12767,7 +12761,7 @@
       <c r="Z77" s="12"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="2:27" ht="26.1" customHeight="1">
+    <row r="78" spans="2:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="E78" s="12"/>
@@ -12792,7 +12786,7 @@
       <c r="Z78" s="12"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="2:27" ht="26.1" customHeight="1">
+    <row r="79" spans="2:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="E79" s="12"/>
@@ -12817,7 +12811,7 @@
       <c r="Z79" s="12"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="2:27" ht="26.1" customHeight="1">
+    <row r="80" spans="2:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="E80" s="12"/>
@@ -12842,103 +12836,103 @@
       <c r="Z80" s="12"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="82" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="83" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="84" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="85" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="86" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="87" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="88" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="89" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="90" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="91" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="92" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="93" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="94" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="95" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="96" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="97" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="98" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="99" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="100" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="101" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="102" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="103" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="104" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="105" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="106" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="107" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="108" s="12" customFormat="1" ht="42.75" customHeight="1"/>
-    <row r="109" s="12" customFormat="1" ht="25.5" customHeight="1"/>
-    <row r="110" s="12" customFormat="1" ht="25.5" customHeight="1"/>
-    <row r="111" s="12" customFormat="1" ht="25.5" customHeight="1"/>
-    <row r="112" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="113" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="114" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="115" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="116" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="117" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="118" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="119" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="120" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="121" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="122" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="123" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="124" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="125" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="126" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="127" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="128" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="129" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="130" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="131" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="132" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="133" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="134" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="135" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="136" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="137" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="138" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="139" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="140" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="141" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="142" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="143" s="12" customFormat="1" ht="42.75" customHeight="1"/>
-    <row r="144" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="145" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="146" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="147" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="148" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="149" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="150" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="151" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="152" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="153" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="154" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="155" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="156" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="157" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="158" s="12" customFormat="1" ht="25.5" customHeight="1"/>
-    <row r="159" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="160" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="161" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="162" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="163" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="164" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="165" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="166" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="167" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="168" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="169" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="170" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="171" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="172" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="173" s="12" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="174" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="175" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="176" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="177" s="12" customFormat="1" ht="15" customHeight="1"/>
+    <row r="81" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="306">
     <mergeCell ref="G35:I35"/>
@@ -13262,12 +13256,12 @@
   <dimension ref="B1:AY104"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC23" sqref="AC23:AF23"/>
       <selection pane="bottomLeft" activeCell="I13" sqref="I13:U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.88671875" style="12" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="17" customWidth="1"/>
@@ -13296,7 +13290,7 @@
     <col min="31" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="42.9" customHeight="1">
+    <row r="1" spans="2:51" ht="42.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
@@ -13332,7 +13326,7 @@
       <c r="Z1" s="138"/>
       <c r="AA1" s="138"/>
     </row>
-    <row r="2" spans="2:51" ht="26.1" customHeight="1">
+    <row r="2" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
       <c r="E2" s="138"/>
       <c r="F2" s="138"/>
@@ -13381,7 +13375,7 @@
       <c r="AX2" s="94"/>
       <c r="AY2" s="94"/>
     </row>
-    <row r="3" spans="2:51" ht="26.1" customHeight="1">
+    <row r="3" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="6"/>
       <c r="E3" s="109" t="s">
         <v>183</v>
@@ -13438,7 +13432,7 @@
       <c r="AX3" s="94"/>
       <c r="AY3" s="94"/>
     </row>
-    <row r="4" spans="2:51" ht="26.1" customHeight="1">
+    <row r="4" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
       <c r="E4" s="109" t="s">
         <v>184</v>
@@ -13495,7 +13489,7 @@
       <c r="AX4" s="94"/>
       <c r="AY4" s="94"/>
     </row>
-    <row r="5" spans="2:51" ht="26.1" customHeight="1">
+    <row r="5" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="E5" s="138"/>
       <c r="F5" s="138"/>
@@ -13546,7 +13540,7 @@
       <c r="AX5" s="94"/>
       <c r="AY5" s="94"/>
     </row>
-    <row r="6" spans="2:51" ht="26.1" customHeight="1">
+    <row r="6" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="6"/>
       <c r="E6" s="138" t="s">
         <v>185</v>
@@ -13603,7 +13597,7 @@
       <c r="AX6" s="94"/>
       <c r="AY6" s="94"/>
     </row>
-    <row r="7" spans="2:51" ht="26.1" customHeight="1">
+    <row r="7" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="6"/>
       <c r="E7" s="109" t="s">
         <v>186</v>
@@ -13660,7 +13654,7 @@
       <c r="AX7" s="94"/>
       <c r="AY7" s="94"/>
     </row>
-    <row r="8" spans="2:51" ht="26.1" customHeight="1">
+    <row r="8" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="6"/>
       <c r="E8" s="109" t="s">
         <v>187</v>
@@ -13717,7 +13711,7 @@
       <c r="AX8" s="94"/>
       <c r="AY8" s="94"/>
     </row>
-    <row r="9" spans="2:51" ht="26.1" customHeight="1">
+    <row r="9" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
       <c r="E9" s="109" t="s">
         <v>188</v>
@@ -13774,7 +13768,7 @@
       <c r="AX9" s="94"/>
       <c r="AY9" s="94"/>
     </row>
-    <row r="10" spans="2:51" ht="26.1" customHeight="1">
+    <row r="10" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="109" t="s">
         <v>189</v>
@@ -13831,7 +13825,7 @@
       <c r="AX10" s="94"/>
       <c r="AY10" s="94"/>
     </row>
-    <row r="11" spans="2:51" ht="26.1" customHeight="1">
+    <row r="11" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
       <c r="E11" s="109" t="s">
         <v>190</v>
@@ -13888,7 +13882,7 @@
       <c r="AX11" s="94"/>
       <c r="AY11" s="94"/>
     </row>
-    <row r="12" spans="2:51" ht="26.1" customHeight="1">
+    <row r="12" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="E12" s="109" t="s">
         <v>192</v>
@@ -13945,7 +13939,7 @@
       <c r="AX12" s="94"/>
       <c r="AY12" s="94"/>
     </row>
-    <row r="13" spans="2:51" ht="26.1" customHeight="1">
+    <row r="13" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="109" t="s">
         <v>193</v>
@@ -14002,7 +13996,7 @@
       <c r="AX13" s="94"/>
       <c r="AY13" s="94"/>
     </row>
-    <row r="14" spans="2:51" ht="26.1" customHeight="1">
+    <row r="14" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
       <c r="E14" s="109" t="s">
         <v>280</v>
@@ -14059,7 +14053,7 @@
       <c r="AX14" s="94"/>
       <c r="AY14" s="94"/>
     </row>
-    <row r="15" spans="2:51" ht="26.1" customHeight="1">
+    <row r="15" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="109"/>
       <c r="F15" s="110"/>
@@ -14110,7 +14104,7 @@
       <c r="AX15" s="94"/>
       <c r="AY15" s="94"/>
     </row>
-    <row r="16" spans="2:51" ht="26.1" customHeight="1">
+    <row r="16" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="126" t="s">
         <v>49</v>
       </c>
@@ -14174,7 +14168,7 @@
       <c r="AX16" s="94"/>
       <c r="AY16" s="94"/>
     </row>
-    <row r="17" spans="2:51" ht="26.1" customHeight="1">
+    <row r="17" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="126"/>
       <c r="C17" s="180"/>
       <c r="D17" s="6"/>
@@ -14233,7 +14227,7 @@
       <c r="AX17" s="94"/>
       <c r="AY17" s="94"/>
     </row>
-    <row r="18" spans="2:51" ht="26.1" customHeight="1">
+    <row r="18" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="126"/>
       <c r="C18" s="180"/>
       <c r="D18" s="6"/>
@@ -14286,7 +14280,7 @@
       <c r="AX18" s="94"/>
       <c r="AY18" s="94"/>
     </row>
-    <row r="19" spans="2:51" ht="26.1" customHeight="1">
+    <row r="19" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="126"/>
       <c r="C19" s="180"/>
       <c r="D19" s="6"/>
@@ -14345,7 +14339,7 @@
       <c r="AX19" s="94"/>
       <c r="AY19" s="94"/>
     </row>
-    <row r="20" spans="2:51" ht="26.1" customHeight="1">
+    <row r="20" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="126" t="s">
         <v>50</v>
       </c>
@@ -14403,7 +14397,7 @@
       <c r="AX20" s="94"/>
       <c r="AY20" s="94"/>
     </row>
-    <row r="21" spans="2:51" ht="26.1" customHeight="1">
+    <row r="21" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="126"/>
       <c r="C21" s="183"/>
       <c r="D21" s="6"/>
@@ -14462,7 +14456,7 @@
       <c r="AX21" s="94"/>
       <c r="AY21" s="94"/>
     </row>
-    <row r="22" spans="2:51" ht="26.1" customHeight="1">
+    <row r="22" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="126"/>
       <c r="C22" s="183"/>
       <c r="D22" s="6"/>
@@ -14521,7 +14515,7 @@
       <c r="AX22" s="94"/>
       <c r="AY22" s="94"/>
     </row>
-    <row r="23" spans="2:51" ht="26.1" customHeight="1">
+    <row r="23" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="126" t="s">
         <v>51</v>
       </c>
@@ -14585,7 +14579,7 @@
       <c r="AX23" s="94"/>
       <c r="AY23" s="94"/>
     </row>
-    <row r="24" spans="2:51" ht="26.1" customHeight="1">
+    <row r="24" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="126"/>
       <c r="C24" s="180"/>
       <c r="D24" s="6"/>
@@ -14638,7 +14632,7 @@
       <c r="AX24" s="94"/>
       <c r="AY24" s="94"/>
     </row>
-    <row r="25" spans="2:51" ht="26.1" customHeight="1">
+    <row r="25" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="126"/>
       <c r="C25" s="180"/>
       <c r="D25" s="6"/>
@@ -14689,7 +14683,7 @@
       <c r="AX25" s="94"/>
       <c r="AY25" s="94"/>
     </row>
-    <row r="26" spans="2:51" ht="26.1" customHeight="1">
+    <row r="26" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="126" t="s">
         <v>49</v>
       </c>
@@ -14753,7 +14747,7 @@
       <c r="AX26" s="94"/>
       <c r="AY26" s="94"/>
     </row>
-    <row r="27" spans="2:51" ht="26.1" customHeight="1">
+    <row r="27" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="126"/>
       <c r="C27" s="180"/>
       <c r="D27" s="6"/>
@@ -14806,7 +14800,7 @@
       <c r="AX27" s="94"/>
       <c r="AY27" s="94"/>
     </row>
-    <row r="28" spans="2:51" ht="26.1" customHeight="1">
+    <row r="28" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="126"/>
       <c r="C28" s="180"/>
       <c r="D28" s="6"/>
@@ -14865,7 +14859,7 @@
       <c r="AX28" s="94"/>
       <c r="AY28" s="94"/>
     </row>
-    <row r="29" spans="2:51" ht="26.1" customHeight="1">
+    <row r="29" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="126"/>
       <c r="C29" s="180"/>
       <c r="D29" s="6"/>
@@ -14924,7 +14918,7 @@
       <c r="AX29" s="94"/>
       <c r="AY29" s="94"/>
     </row>
-    <row r="30" spans="2:51" ht="26.1" customHeight="1">
+    <row r="30" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="126" t="s">
         <v>52</v>
       </c>
@@ -14982,7 +14976,7 @@
       <c r="AX30" s="94"/>
       <c r="AY30" s="94"/>
     </row>
-    <row r="31" spans="2:51" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="2:51" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="126"/>
       <c r="C31" s="183"/>
       <c r="D31" s="13"/>
@@ -15037,7 +15031,7 @@
       <c r="AX31" s="94"/>
       <c r="AY31" s="94"/>
     </row>
-    <row r="32" spans="2:51" s="18" customFormat="1" ht="6" customHeight="1">
+    <row r="32" spans="2:51" s="18" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="126"/>
       <c r="C32" s="183"/>
       <c r="D32" s="122" t="str">
@@ -15077,7 +15071,7 @@
       <c r="Z32" s="187"/>
       <c r="AA32" s="121"/>
     </row>
-    <row r="33" spans="2:31" s="18" customFormat="1" ht="9" customHeight="1">
+    <row r="33" spans="2:31" s="18" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="126"/>
       <c r="C33" s="183"/>
       <c r="D33" s="123"/>
@@ -15110,7 +15104,7 @@
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
     </row>
-    <row r="34" spans="2:31" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="2:31" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="126"/>
       <c r="C34" s="183"/>
       <c r="D34" s="15" t="s">
@@ -15151,7 +15145,7 @@
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
     </row>
-    <row r="35" spans="2:31" ht="15" customHeight="1">
+    <row r="35" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="119"/>
       <c r="C35" s="119"/>
       <c r="D35" s="119"/>
@@ -15183,7 +15177,7 @@
       <c r="Z35" s="120"/>
       <c r="AA35" s="120"/>
     </row>
-    <row r="36" spans="2:31" ht="25.5" customHeight="1">
+    <row r="36" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="E36" s="12"/>
@@ -15208,7 +15202,7 @@
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="2:31" ht="25.5" customHeight="1">
+    <row r="37" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="E37" s="12"/>
@@ -15233,7 +15227,7 @@
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="2:31" ht="25.5" customHeight="1">
+    <row r="38" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="E38" s="12"/>
@@ -15258,7 +15252,7 @@
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="2:31" ht="26.1" customHeight="1">
+    <row r="39" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="E39" s="12"/>
@@ -15283,7 +15277,7 @@
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="2:31" ht="26.1" customHeight="1">
+    <row r="40" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="E40" s="12"/>
@@ -15308,7 +15302,7 @@
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
     </row>
-    <row r="41" spans="2:31" ht="26.1" customHeight="1">
+    <row r="41" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="E41" s="12"/>
@@ -15333,7 +15327,7 @@
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="2:31" ht="26.1" customHeight="1">
+    <row r="42" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="E42" s="12"/>
@@ -15358,7 +15352,7 @@
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="2:31" ht="26.1" customHeight="1">
+    <row r="43" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="E43" s="12"/>
@@ -15383,7 +15377,7 @@
       <c r="Z43" s="12"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="2:31" ht="26.1" customHeight="1">
+    <row r="44" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="E44" s="12"/>
@@ -15408,7 +15402,7 @@
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="2:31" ht="26.1" customHeight="1">
+    <row r="45" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="E45" s="12"/>
@@ -15433,7 +15427,7 @@
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="2:31" ht="26.1" customHeight="1">
+    <row r="46" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="E46" s="12"/>
@@ -15458,7 +15452,7 @@
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="2:31" ht="26.1" customHeight="1">
+    <row r="47" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="E47" s="12"/>
@@ -15483,7 +15477,7 @@
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="2:31" ht="26.1" customHeight="1">
+    <row r="48" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="E48" s="12"/>
@@ -15508,62 +15502,62 @@
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="50" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="51" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="52" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="53" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="54" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="55" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="56" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="57" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="58" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="59" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="60" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="61" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="62" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="63" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="64" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="65" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="66" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="67" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="68" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="69" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="70" s="12" customFormat="1" ht="42.75" customHeight="1"/>
-    <row r="71" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="72" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="73" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="74" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="75" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="76" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="77" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="78" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="79" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="80" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="81" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="82" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="83" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="84" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="85" s="12" customFormat="1" ht="25.5" customHeight="1"/>
-    <row r="86" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="87" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="88" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="89" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="90" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="91" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="92" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="93" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="94" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="95" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="96" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="97" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="98" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="99" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="100" s="12" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="101" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="102" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="103" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="104" s="12" customFormat="1" ht="15" customHeight="1"/>
+    <row r="49" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="269">
     <mergeCell ref="T35:AA35"/>
@@ -15849,12 +15843,12 @@
   <dimension ref="B1:AY104"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC23" sqref="AC23:AF23"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17:U17"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12:U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.88671875" style="12" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="17" customWidth="1"/>
@@ -15883,7 +15877,7 @@
     <col min="31" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="42.9" customHeight="1">
+    <row r="1" spans="2:51" ht="42.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
@@ -15919,7 +15913,7 @@
       <c r="Z1" s="138"/>
       <c r="AA1" s="138"/>
     </row>
-    <row r="2" spans="2:51" ht="26.1" customHeight="1">
+    <row r="2" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
       <c r="E2" s="138"/>
       <c r="F2" s="138"/>
@@ -15968,7 +15962,7 @@
       <c r="AX2" s="94"/>
       <c r="AY2" s="94"/>
     </row>
-    <row r="3" spans="2:51" ht="26.1" customHeight="1">
+    <row r="3" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="6"/>
       <c r="E3" s="109" t="s">
         <v>165</v>
@@ -16025,7 +16019,7 @@
       <c r="AX3" s="94"/>
       <c r="AY3" s="94"/>
     </row>
-    <row r="4" spans="2:51" ht="26.1" customHeight="1">
+    <row r="4" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
       <c r="E4" s="109"/>
       <c r="F4" s="110"/>
@@ -16076,7 +16070,7 @@
       <c r="AX4" s="94"/>
       <c r="AY4" s="94"/>
     </row>
-    <row r="5" spans="2:51" ht="26.1" customHeight="1">
+    <row r="5" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="E5" s="131"/>
       <c r="F5" s="132"/>
@@ -16125,7 +16119,7 @@
       <c r="AX5" s="94"/>
       <c r="AY5" s="94"/>
     </row>
-    <row r="6" spans="2:51" ht="26.1" customHeight="1">
+    <row r="6" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="6"/>
       <c r="E6" s="109"/>
       <c r="F6" s="110"/>
@@ -16174,7 +16168,7 @@
       <c r="AX6" s="94"/>
       <c r="AY6" s="94"/>
     </row>
-    <row r="7" spans="2:51" ht="26.1" customHeight="1">
+    <row r="7" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="6"/>
       <c r="E7" s="181" t="s">
         <v>194</v>
@@ -16231,7 +16225,7 @@
       <c r="AX7" s="94"/>
       <c r="AY7" s="94"/>
     </row>
-    <row r="8" spans="2:51" ht="26.1" customHeight="1">
+    <row r="8" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="6"/>
       <c r="E8" s="109"/>
       <c r="F8" s="110"/>
@@ -16280,7 +16274,7 @@
       <c r="AX8" s="94"/>
       <c r="AY8" s="94"/>
     </row>
-    <row r="9" spans="2:51" ht="26.1" customHeight="1">
+    <row r="9" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
       <c r="E9" s="109"/>
       <c r="F9" s="110"/>
@@ -16329,7 +16323,7 @@
       <c r="AX9" s="94"/>
       <c r="AY9" s="94"/>
     </row>
-    <row r="10" spans="2:51" ht="26.1" customHeight="1">
+    <row r="10" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="109" t="s">
         <v>166</v>
@@ -16386,7 +16380,7 @@
       <c r="AX10" s="94"/>
       <c r="AY10" s="94"/>
     </row>
-    <row r="11" spans="2:51" ht="26.1" customHeight="1">
+    <row r="11" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
       <c r="E11" s="109" t="s">
         <v>272</v>
@@ -16443,7 +16437,7 @@
       <c r="AX11" s="94"/>
       <c r="AY11" s="94"/>
     </row>
-    <row r="12" spans="2:51" ht="26.1" customHeight="1">
+    <row r="12" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="E12" s="109"/>
       <c r="F12" s="110"/>
@@ -16492,7 +16486,7 @@
       <c r="AX12" s="94"/>
       <c r="AY12" s="94"/>
     </row>
-    <row r="13" spans="2:51" ht="26.1" customHeight="1">
+    <row r="13" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="109"/>
       <c r="F13" s="110"/>
@@ -16541,7 +16535,7 @@
       <c r="AX13" s="94"/>
       <c r="AY13" s="94"/>
     </row>
-    <row r="14" spans="2:51" ht="26.1" customHeight="1">
+    <row r="14" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
       <c r="E14" s="109"/>
       <c r="F14" s="110"/>
@@ -16590,7 +16584,7 @@
       <c r="AX14" s="94"/>
       <c r="AY14" s="94"/>
     </row>
-    <row r="15" spans="2:51" ht="26.1" customHeight="1">
+    <row r="15" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="109"/>
       <c r="F15" s="110"/>
@@ -16639,7 +16633,7 @@
       <c r="AX15" s="94"/>
       <c r="AY15" s="94"/>
     </row>
-    <row r="16" spans="2:51" ht="26.1" customHeight="1">
+    <row r="16" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="126" t="s">
         <v>49</v>
       </c>
@@ -16703,7 +16697,7 @@
       <c r="AX16" s="94"/>
       <c r="AY16" s="94"/>
     </row>
-    <row r="17" spans="2:51" ht="26.1" customHeight="1">
+    <row r="17" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="126"/>
       <c r="C17" s="180"/>
       <c r="D17" s="6"/>
@@ -16756,7 +16750,7 @@
       <c r="AX17" s="94"/>
       <c r="AY17" s="94"/>
     </row>
-    <row r="18" spans="2:51" ht="26.1" customHeight="1">
+    <row r="18" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="126"/>
       <c r="C18" s="180"/>
       <c r="D18" s="6"/>
@@ -16807,7 +16801,7 @@
       <c r="AX18" s="94"/>
       <c r="AY18" s="94"/>
     </row>
-    <row r="19" spans="2:51" ht="26.1" customHeight="1">
+    <row r="19" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="126"/>
       <c r="C19" s="180"/>
       <c r="D19" s="6"/>
@@ -16858,7 +16852,7 @@
       <c r="AX19" s="94"/>
       <c r="AY19" s="94"/>
     </row>
-    <row r="20" spans="2:51" ht="26.1" customHeight="1">
+    <row r="20" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="126" t="s">
         <v>50</v>
       </c>
@@ -16914,7 +16908,7 @@
       <c r="AX20" s="94"/>
       <c r="AY20" s="94"/>
     </row>
-    <row r="21" spans="2:51" ht="26.1" customHeight="1">
+    <row r="21" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="126"/>
       <c r="C21" s="183"/>
       <c r="D21" s="6"/>
@@ -16967,7 +16961,7 @@
       <c r="AX21" s="94"/>
       <c r="AY21" s="94"/>
     </row>
-    <row r="22" spans="2:51" ht="26.1" customHeight="1">
+    <row r="22" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="126"/>
       <c r="C22" s="183"/>
       <c r="D22" s="6"/>
@@ -17026,7 +17020,7 @@
       <c r="AX22" s="94"/>
       <c r="AY22" s="94"/>
     </row>
-    <row r="23" spans="2:51" ht="26.1" customHeight="1">
+    <row r="23" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="126" t="s">
         <v>51</v>
       </c>
@@ -17090,7 +17084,7 @@
       <c r="AX23" s="94"/>
       <c r="AY23" s="94"/>
     </row>
-    <row r="24" spans="2:51" ht="26.1" customHeight="1">
+    <row r="24" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="126"/>
       <c r="C24" s="180"/>
       <c r="D24" s="6"/>
@@ -17149,7 +17143,7 @@
       <c r="AX24" s="94"/>
       <c r="AY24" s="94"/>
     </row>
-    <row r="25" spans="2:51" ht="26.1" customHeight="1">
+    <row r="25" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="126"/>
       <c r="C25" s="180"/>
       <c r="D25" s="6"/>
@@ -17208,7 +17202,7 @@
       <c r="AX25" s="94"/>
       <c r="AY25" s="94"/>
     </row>
-    <row r="26" spans="2:51" ht="26.1" customHeight="1">
+    <row r="26" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="126" t="s">
         <v>49</v>
       </c>
@@ -17272,7 +17266,7 @@
       <c r="AX26" s="94"/>
       <c r="AY26" s="94"/>
     </row>
-    <row r="27" spans="2:51" ht="26.1" customHeight="1">
+    <row r="27" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="126"/>
       <c r="C27" s="180"/>
       <c r="D27" s="6"/>
@@ -17331,7 +17325,7 @@
       <c r="AX27" s="94"/>
       <c r="AY27" s="94"/>
     </row>
-    <row r="28" spans="2:51" ht="26.1" customHeight="1">
+    <row r="28" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="126"/>
       <c r="C28" s="180"/>
       <c r="D28" s="6"/>
@@ -17390,7 +17384,7 @@
       <c r="AX28" s="94"/>
       <c r="AY28" s="94"/>
     </row>
-    <row r="29" spans="2:51" ht="26.1" customHeight="1">
+    <row r="29" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="126"/>
       <c r="C29" s="180"/>
       <c r="D29" s="6"/>
@@ -17449,7 +17443,7 @@
       <c r="AX29" s="94"/>
       <c r="AY29" s="94"/>
     </row>
-    <row r="30" spans="2:51" ht="26.1" customHeight="1">
+    <row r="30" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="126" t="s">
         <v>52</v>
       </c>
@@ -17505,7 +17499,7 @@
       <c r="AX30" s="94"/>
       <c r="AY30" s="94"/>
     </row>
-    <row r="31" spans="2:51" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="2:51" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="126"/>
       <c r="C31" s="183"/>
       <c r="D31" s="13"/>
@@ -17560,7 +17554,7 @@
       <c r="AX31" s="94"/>
       <c r="AY31" s="94"/>
     </row>
-    <row r="32" spans="2:51" s="18" customFormat="1" ht="6" customHeight="1">
+    <row r="32" spans="2:51" s="18" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="126"/>
       <c r="C32" s="183"/>
       <c r="D32" s="122" t="str">
@@ -17600,7 +17594,7 @@
       <c r="Z32" s="187"/>
       <c r="AA32" s="121"/>
     </row>
-    <row r="33" spans="2:31" s="18" customFormat="1" ht="9" customHeight="1">
+    <row r="33" spans="2:31" s="18" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="126"/>
       <c r="C33" s="183"/>
       <c r="D33" s="123"/>
@@ -17633,7 +17627,7 @@
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
     </row>
-    <row r="34" spans="2:31" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="2:31" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="126"/>
       <c r="C34" s="183"/>
       <c r="D34" s="15" t="s">
@@ -17674,7 +17668,7 @@
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
     </row>
-    <row r="35" spans="2:31" ht="15" customHeight="1">
+    <row r="35" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="119"/>
       <c r="C35" s="119"/>
       <c r="D35" s="119"/>
@@ -17706,7 +17700,7 @@
       <c r="Z35" s="120"/>
       <c r="AA35" s="120"/>
     </row>
-    <row r="36" spans="2:31" ht="25.5" customHeight="1">
+    <row r="36" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="E36" s="12"/>
@@ -17731,7 +17725,7 @@
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="2:31" ht="25.5" customHeight="1">
+    <row r="37" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="E37" s="12"/>
@@ -17756,7 +17750,7 @@
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="2:31" ht="25.5" customHeight="1">
+    <row r="38" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="E38" s="12"/>
@@ -17781,7 +17775,7 @@
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="2:31" ht="26.1" customHeight="1">
+    <row r="39" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="E39" s="12"/>
@@ -17806,7 +17800,7 @@
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="2:31" ht="26.1" customHeight="1">
+    <row r="40" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="E40" s="12"/>
@@ -17831,7 +17825,7 @@
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
     </row>
-    <row r="41" spans="2:31" ht="26.1" customHeight="1">
+    <row r="41" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="E41" s="12"/>
@@ -17856,7 +17850,7 @@
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="2:31" ht="26.1" customHeight="1">
+    <row r="42" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="E42" s="12"/>
@@ -17881,7 +17875,7 @@
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="2:31" ht="26.1" customHeight="1">
+    <row r="43" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="E43" s="12"/>
@@ -17906,7 +17900,7 @@
       <c r="Z43" s="12"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="2:31" ht="26.1" customHeight="1">
+    <row r="44" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="E44" s="12"/>
@@ -17931,7 +17925,7 @@
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="2:31" ht="26.1" customHeight="1">
+    <row r="45" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="E45" s="12"/>
@@ -17956,7 +17950,7 @@
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="2:31" ht="26.1" customHeight="1">
+    <row r="46" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="E46" s="12"/>
@@ -17981,7 +17975,7 @@
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="2:31" ht="26.1" customHeight="1">
+    <row r="47" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="E47" s="12"/>
@@ -18006,7 +18000,7 @@
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="2:31" ht="26.1" customHeight="1">
+    <row r="48" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="E48" s="12"/>
@@ -18031,62 +18025,62 @@
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="50" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="51" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="52" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="53" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="54" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="55" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="56" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="57" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="58" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="59" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="60" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="61" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="62" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="63" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="64" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="65" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="66" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="67" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="68" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="69" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="70" s="12" customFormat="1" ht="42.75" customHeight="1"/>
-    <row r="71" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="72" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="73" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="74" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="75" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="76" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="77" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="78" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="79" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="80" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="81" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="82" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="83" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="84" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="85" s="12" customFormat="1" ht="25.5" customHeight="1"/>
-    <row r="86" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="87" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="88" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="89" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="90" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="91" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="92" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="93" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="94" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="95" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="96" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="97" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="98" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="99" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="100" s="12" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="101" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="102" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="103" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="104" s="12" customFormat="1" ht="15" customHeight="1"/>
+    <row r="49" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="269">
     <mergeCell ref="E1:H1"/>
@@ -18372,12 +18366,12 @@
   <dimension ref="B1:AY104"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC23" sqref="AC23:AF23"/>
-      <selection pane="bottomLeft" activeCell="AC15" sqref="AC15:AF15"/>
+      <selection pane="bottomLeft" activeCell="X20" sqref="X20:AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.88671875" style="12" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="17" customWidth="1"/>
@@ -18406,7 +18400,7 @@
     <col min="31" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="42.9" customHeight="1">
+    <row r="1" spans="2:51" ht="42.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
@@ -18442,7 +18436,7 @@
       <c r="Z1" s="138"/>
       <c r="AA1" s="138"/>
     </row>
-    <row r="2" spans="2:51" ht="26.1" customHeight="1">
+    <row r="2" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
       <c r="E2" s="138"/>
       <c r="F2" s="138"/>
@@ -18491,7 +18485,7 @@
       <c r="AX2" s="94"/>
       <c r="AY2" s="94"/>
     </row>
-    <row r="3" spans="2:51" ht="26.1" customHeight="1">
+    <row r="3" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="6"/>
       <c r="E3" s="109" t="s">
         <v>174</v>
@@ -18548,7 +18542,7 @@
       <c r="AX3" s="94"/>
       <c r="AY3" s="94"/>
     </row>
-    <row r="4" spans="2:51" ht="26.1" customHeight="1">
+    <row r="4" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
       <c r="E4" s="138" t="s">
         <v>175</v>
@@ -18605,7 +18599,7 @@
       <c r="AX4" s="94"/>
       <c r="AY4" s="94"/>
     </row>
-    <row r="5" spans="2:51" ht="26.1" customHeight="1">
+    <row r="5" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="E5" s="109" t="s">
         <v>196</v>
@@ -18662,7 +18656,7 @@
       <c r="AX5" s="94"/>
       <c r="AY5" s="94"/>
     </row>
-    <row r="6" spans="2:51" ht="26.1" customHeight="1">
+    <row r="6" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="6"/>
       <c r="E6" s="109" t="s">
         <v>197</v>
@@ -18719,7 +18713,7 @@
       <c r="AX6" s="94"/>
       <c r="AY6" s="94"/>
     </row>
-    <row r="7" spans="2:51" ht="26.1" customHeight="1">
+    <row r="7" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="6"/>
       <c r="E7" s="109" t="s">
         <v>199</v>
@@ -18776,7 +18770,7 @@
       <c r="AX7" s="94"/>
       <c r="AY7" s="94"/>
     </row>
-    <row r="8" spans="2:51" ht="26.1" customHeight="1">
+    <row r="8" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="6"/>
       <c r="E8" s="109" t="s">
         <v>200</v>
@@ -18833,7 +18827,7 @@
       <c r="AX8" s="94"/>
       <c r="AY8" s="94"/>
     </row>
-    <row r="9" spans="2:51" ht="26.1" customHeight="1">
+    <row r="9" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
       <c r="E9" s="181" t="s">
         <v>201</v>
@@ -18890,7 +18884,7 @@
       <c r="AX9" s="94"/>
       <c r="AY9" s="94"/>
     </row>
-    <row r="10" spans="2:51" ht="26.1" customHeight="1">
+    <row r="10" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="109" t="s">
         <v>202</v>
@@ -18947,7 +18941,7 @@
       <c r="AX10" s="94"/>
       <c r="AY10" s="94"/>
     </row>
-    <row r="11" spans="2:51" ht="26.1" customHeight="1">
+    <row r="11" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
       <c r="E11" s="138" t="s">
         <v>203</v>
@@ -19004,7 +18998,7 @@
       <c r="AX11" s="94"/>
       <c r="AY11" s="94"/>
     </row>
-    <row r="12" spans="2:51" ht="26.1" customHeight="1">
+    <row r="12" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="E12" s="109" t="s">
         <v>204</v>
@@ -19061,7 +19055,7 @@
       <c r="AX12" s="94"/>
       <c r="AY12" s="94"/>
     </row>
-    <row r="13" spans="2:51" ht="26.1" customHeight="1">
+    <row r="13" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="109" t="s">
         <v>205</v>
@@ -19118,7 +19112,7 @@
       <c r="AX13" s="94"/>
       <c r="AY13" s="94"/>
     </row>
-    <row r="14" spans="2:51" ht="26.1" customHeight="1">
+    <row r="14" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
       <c r="E14" s="138" t="s">
         <v>206</v>
@@ -19175,7 +19169,7 @@
       <c r="AX14" s="94"/>
       <c r="AY14" s="94"/>
     </row>
-    <row r="15" spans="2:51" ht="26.1" customHeight="1">
+    <row r="15" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="109" t="s">
         <v>207</v>
@@ -19232,7 +19226,7 @@
       <c r="AX15" s="94"/>
       <c r="AY15" s="94"/>
     </row>
-    <row r="16" spans="2:51" ht="26.1" customHeight="1">
+    <row r="16" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="126" t="s">
         <v>49</v>
       </c>
@@ -19296,7 +19290,7 @@
       <c r="AX16" s="94"/>
       <c r="AY16" s="94"/>
     </row>
-    <row r="17" spans="2:51" ht="26.1" customHeight="1">
+    <row r="17" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="126"/>
       <c r="C17" s="180"/>
       <c r="D17" s="6"/>
@@ -19355,7 +19349,7 @@
       <c r="AX17" s="94"/>
       <c r="AY17" s="94"/>
     </row>
-    <row r="18" spans="2:51" ht="26.1" customHeight="1">
+    <row r="18" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="126"/>
       <c r="C18" s="180"/>
       <c r="D18" s="6"/>
@@ -19414,7 +19408,7 @@
       <c r="AX18" s="94"/>
       <c r="AY18" s="94"/>
     </row>
-    <row r="19" spans="2:51" ht="26.1" customHeight="1">
+    <row r="19" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="126"/>
       <c r="C19" s="180"/>
       <c r="D19" s="6"/>
@@ -19473,7 +19467,7 @@
       <c r="AX19" s="94"/>
       <c r="AY19" s="94"/>
     </row>
-    <row r="20" spans="2:51" ht="26.1" customHeight="1">
+    <row r="20" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="126" t="s">
         <v>50</v>
       </c>
@@ -19537,7 +19531,7 @@
       <c r="AX20" s="94"/>
       <c r="AY20" s="94"/>
     </row>
-    <row r="21" spans="2:51" ht="26.1" customHeight="1">
+    <row r="21" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="126"/>
       <c r="C21" s="183"/>
       <c r="D21" s="6"/>
@@ -19596,7 +19590,7 @@
       <c r="AX21" s="94"/>
       <c r="AY21" s="94"/>
     </row>
-    <row r="22" spans="2:51" ht="26.1" customHeight="1">
+    <row r="22" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="126"/>
       <c r="C22" s="183"/>
       <c r="D22" s="6"/>
@@ -19655,7 +19649,7 @@
       <c r="AX22" s="94"/>
       <c r="AY22" s="94"/>
     </row>
-    <row r="23" spans="2:51" ht="26.1" customHeight="1">
+    <row r="23" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="126" t="s">
         <v>51</v>
       </c>
@@ -19719,7 +19713,7 @@
       <c r="AX23" s="94"/>
       <c r="AY23" s="94"/>
     </row>
-    <row r="24" spans="2:51" ht="26.1" customHeight="1">
+    <row r="24" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="126"/>
       <c r="C24" s="180"/>
       <c r="D24" s="6"/>
@@ -19778,7 +19772,7 @@
       <c r="AX24" s="94"/>
       <c r="AY24" s="94"/>
     </row>
-    <row r="25" spans="2:51" ht="26.1" customHeight="1">
+    <row r="25" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="126"/>
       <c r="C25" s="180"/>
       <c r="D25" s="6"/>
@@ -19837,7 +19831,7 @@
       <c r="AX25" s="94"/>
       <c r="AY25" s="94"/>
     </row>
-    <row r="26" spans="2:51" ht="26.1" customHeight="1">
+    <row r="26" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="126" t="s">
         <v>49</v>
       </c>
@@ -19901,7 +19895,7 @@
       <c r="AX26" s="94"/>
       <c r="AY26" s="94"/>
     </row>
-    <row r="27" spans="2:51" ht="26.1" customHeight="1">
+    <row r="27" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="126"/>
       <c r="C27" s="180"/>
       <c r="D27" s="6"/>
@@ -19960,7 +19954,7 @@
       <c r="AX27" s="94"/>
       <c r="AY27" s="94"/>
     </row>
-    <row r="28" spans="2:51" ht="26.1" customHeight="1">
+    <row r="28" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="126"/>
       <c r="C28" s="180"/>
       <c r="D28" s="6"/>
@@ -20019,7 +20013,7 @@
       <c r="AX28" s="94"/>
       <c r="AY28" s="94"/>
     </row>
-    <row r="29" spans="2:51" ht="26.1" customHeight="1">
+    <row r="29" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="126"/>
       <c r="C29" s="180"/>
       <c r="D29" s="6"/>
@@ -20078,7 +20072,7 @@
       <c r="AX29" s="94"/>
       <c r="AY29" s="94"/>
     </row>
-    <row r="30" spans="2:51" ht="26.1" customHeight="1">
+    <row r="30" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="126" t="s">
         <v>52</v>
       </c>
@@ -20134,7 +20128,7 @@
       <c r="AX30" s="94"/>
       <c r="AY30" s="94"/>
     </row>
-    <row r="31" spans="2:51" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="2:51" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="126"/>
       <c r="C31" s="183"/>
       <c r="D31" s="13"/>
@@ -20189,7 +20183,7 @@
       <c r="AX31" s="94"/>
       <c r="AY31" s="94"/>
     </row>
-    <row r="32" spans="2:51" s="18" customFormat="1" ht="6" customHeight="1">
+    <row r="32" spans="2:51" s="18" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="126"/>
       <c r="C32" s="183"/>
       <c r="D32" s="122" t="str">
@@ -20229,7 +20223,7 @@
       <c r="Z32" s="187"/>
       <c r="AA32" s="121"/>
     </row>
-    <row r="33" spans="2:31" s="18" customFormat="1" ht="9" customHeight="1">
+    <row r="33" spans="2:31" s="18" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="126"/>
       <c r="C33" s="183"/>
       <c r="D33" s="123"/>
@@ -20262,7 +20256,7 @@
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
     </row>
-    <row r="34" spans="2:31" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="2:31" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="126"/>
       <c r="C34" s="183"/>
       <c r="D34" s="15" t="s">
@@ -20303,7 +20297,7 @@
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
     </row>
-    <row r="35" spans="2:31" ht="15" customHeight="1">
+    <row r="35" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="119"/>
       <c r="C35" s="119"/>
       <c r="D35" s="119"/>
@@ -20335,7 +20329,7 @@
       <c r="Z35" s="120"/>
       <c r="AA35" s="120"/>
     </row>
-    <row r="36" spans="2:31" ht="25.5" customHeight="1">
+    <row r="36" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="E36" s="12"/>
@@ -20360,7 +20354,7 @@
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="2:31" ht="25.5" customHeight="1">
+    <row r="37" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="E37" s="12"/>
@@ -20385,7 +20379,7 @@
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="2:31" ht="25.5" customHeight="1">
+    <row r="38" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="E38" s="12"/>
@@ -20410,7 +20404,7 @@
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="2:31" ht="26.1" customHeight="1">
+    <row r="39" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="E39" s="12"/>
@@ -20435,7 +20429,7 @@
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="2:31" ht="26.1" customHeight="1">
+    <row r="40" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="E40" s="12"/>
@@ -20460,7 +20454,7 @@
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
     </row>
-    <row r="41" spans="2:31" ht="26.1" customHeight="1">
+    <row r="41" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="E41" s="12"/>
@@ -20485,7 +20479,7 @@
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="2:31" ht="26.1" customHeight="1">
+    <row r="42" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="E42" s="12"/>
@@ -20510,7 +20504,7 @@
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="2:31" ht="26.1" customHeight="1">
+    <row r="43" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="E43" s="12"/>
@@ -20535,7 +20529,7 @@
       <c r="Z43" s="12"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="2:31" ht="26.1" customHeight="1">
+    <row r="44" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="E44" s="12"/>
@@ -20560,7 +20554,7 @@
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="2:31" ht="26.1" customHeight="1">
+    <row r="45" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="E45" s="12"/>
@@ -20585,7 +20579,7 @@
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="2:31" ht="26.1" customHeight="1">
+    <row r="46" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="E46" s="12"/>
@@ -20610,7 +20604,7 @@
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="2:31" ht="26.1" customHeight="1">
+    <row r="47" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="E47" s="12"/>
@@ -20635,7 +20629,7 @@
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="2:31" ht="26.1" customHeight="1">
+    <row r="48" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="E48" s="12"/>
@@ -20660,62 +20654,62 @@
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="50" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="51" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="52" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="53" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="54" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="55" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="56" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="57" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="58" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="59" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="60" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="61" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="62" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="63" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="64" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="65" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="66" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="67" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="68" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="69" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="70" s="12" customFormat="1" ht="42.75" customHeight="1"/>
-    <row r="71" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="72" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="73" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="74" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="75" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="76" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="77" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="78" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="79" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="80" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="81" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="82" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="83" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="84" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="85" s="12" customFormat="1" ht="25.5" customHeight="1"/>
-    <row r="86" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="87" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="88" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="89" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="90" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="91" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="92" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="93" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="94" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="95" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="96" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="97" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="98" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="99" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="100" s="12" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="101" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="102" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="103" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="104" s="12" customFormat="1" ht="15" customHeight="1"/>
+    <row r="49" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="269">
     <mergeCell ref="E1:H1"/>
@@ -21006,7 +21000,7 @@
       <selection pane="bottomLeft" activeCell="AC23" sqref="AC23:AF23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.88671875" style="12" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="17" customWidth="1"/>
@@ -21035,7 +21029,7 @@
     <col min="31" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="42.9" customHeight="1">
+    <row r="1" spans="2:51" ht="42.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
@@ -21071,7 +21065,7 @@
       <c r="Z1" s="138"/>
       <c r="AA1" s="138"/>
     </row>
-    <row r="2" spans="2:51" ht="26.1" customHeight="1">
+    <row r="2" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
       <c r="E2" s="138"/>
       <c r="F2" s="138"/>
@@ -21120,7 +21114,7 @@
       <c r="AX2" s="94"/>
       <c r="AY2" s="94"/>
     </row>
-    <row r="3" spans="2:51" ht="26.1" customHeight="1">
+    <row r="3" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="6"/>
       <c r="E3" s="109" t="s">
         <v>219</v>
@@ -21177,7 +21171,7 @@
       <c r="AX3" s="94"/>
       <c r="AY3" s="94"/>
     </row>
-    <row r="4" spans="2:51" ht="26.1" customHeight="1">
+    <row r="4" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
       <c r="E4" s="138" t="s">
         <v>126</v>
@@ -21234,7 +21228,7 @@
       <c r="AX4" s="94"/>
       <c r="AY4" s="94"/>
     </row>
-    <row r="5" spans="2:51" ht="26.1" customHeight="1">
+    <row r="5" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="E5" s="109" t="s">
         <v>220</v>
@@ -21291,7 +21285,7 @@
       <c r="AX5" s="94"/>
       <c r="AY5" s="94"/>
     </row>
-    <row r="6" spans="2:51" ht="26.1" customHeight="1">
+    <row r="6" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="6"/>
       <c r="E6" s="109" t="s">
         <v>221</v>
@@ -21348,7 +21342,7 @@
       <c r="AX6" s="94"/>
       <c r="AY6" s="94"/>
     </row>
-    <row r="7" spans="2:51" ht="26.1" customHeight="1">
+    <row r="7" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="6"/>
       <c r="E7" s="109" t="s">
         <v>222</v>
@@ -21405,7 +21399,7 @@
       <c r="AX7" s="94"/>
       <c r="AY7" s="94"/>
     </row>
-    <row r="8" spans="2:51" ht="26.1" customHeight="1">
+    <row r="8" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="6"/>
       <c r="E8" s="109" t="s">
         <v>223</v>
@@ -21462,7 +21456,7 @@
       <c r="AX8" s="94"/>
       <c r="AY8" s="94"/>
     </row>
-    <row r="9" spans="2:51" ht="26.1" customHeight="1">
+    <row r="9" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
       <c r="E9" s="181" t="s">
         <v>224</v>
@@ -21519,7 +21513,7 @@
       <c r="AX9" s="94"/>
       <c r="AY9" s="94"/>
     </row>
-    <row r="10" spans="2:51" ht="26.1" customHeight="1">
+    <row r="10" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="109" t="s">
         <v>225</v>
@@ -21576,7 +21570,7 @@
       <c r="AX10" s="94"/>
       <c r="AY10" s="94"/>
     </row>
-    <row r="11" spans="2:51" ht="26.1" customHeight="1">
+    <row r="11" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
       <c r="E11" s="138" t="s">
         <v>226</v>
@@ -21633,7 +21627,7 @@
       <c r="AX11" s="94"/>
       <c r="AY11" s="94"/>
     </row>
-    <row r="12" spans="2:51" ht="26.1" customHeight="1">
+    <row r="12" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="E12" s="109" t="s">
         <v>227</v>
@@ -21690,7 +21684,7 @@
       <c r="AX12" s="94"/>
       <c r="AY12" s="94"/>
     </row>
-    <row r="13" spans="2:51" ht="26.1" customHeight="1">
+    <row r="13" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="109" t="s">
         <v>228</v>
@@ -21747,7 +21741,7 @@
       <c r="AX13" s="94"/>
       <c r="AY13" s="94"/>
     </row>
-    <row r="14" spans="2:51" ht="26.1" customHeight="1">
+    <row r="14" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
       <c r="E14" s="138" t="s">
         <v>229</v>
@@ -21804,7 +21798,7 @@
       <c r="AX14" s="94"/>
       <c r="AY14" s="94"/>
     </row>
-    <row r="15" spans="2:51" ht="26.1" customHeight="1">
+    <row r="15" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="109" t="s">
         <v>230</v>
@@ -21861,7 +21855,7 @@
       <c r="AX15" s="94"/>
       <c r="AY15" s="94"/>
     </row>
-    <row r="16" spans="2:51" ht="26.1" customHeight="1">
+    <row r="16" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="126" t="s">
         <v>49</v>
       </c>
@@ -21925,7 +21919,7 @@
       <c r="AX16" s="94"/>
       <c r="AY16" s="94"/>
     </row>
-    <row r="17" spans="2:51" ht="26.1" customHeight="1">
+    <row r="17" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="126"/>
       <c r="C17" s="180"/>
       <c r="D17" s="6"/>
@@ -21984,7 +21978,7 @@
       <c r="AX17" s="94"/>
       <c r="AY17" s="94"/>
     </row>
-    <row r="18" spans="2:51" ht="26.1" customHeight="1">
+    <row r="18" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="126"/>
       <c r="C18" s="180"/>
       <c r="D18" s="6"/>
@@ -22043,7 +22037,7 @@
       <c r="AX18" s="94"/>
       <c r="AY18" s="94"/>
     </row>
-    <row r="19" spans="2:51" ht="26.1" customHeight="1">
+    <row r="19" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="126"/>
       <c r="C19" s="180"/>
       <c r="D19" s="6"/>
@@ -22102,7 +22096,7 @@
       <c r="AX19" s="94"/>
       <c r="AY19" s="94"/>
     </row>
-    <row r="20" spans="2:51" ht="26.1" customHeight="1">
+    <row r="20" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="126" t="s">
         <v>50</v>
       </c>
@@ -22166,7 +22160,7 @@
       <c r="AX20" s="94"/>
       <c r="AY20" s="94"/>
     </row>
-    <row r="21" spans="2:51" ht="26.1" customHeight="1">
+    <row r="21" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="126"/>
       <c r="C21" s="183"/>
       <c r="D21" s="6"/>
@@ -22225,7 +22219,7 @@
       <c r="AX21" s="94"/>
       <c r="AY21" s="94"/>
     </row>
-    <row r="22" spans="2:51" ht="26.1" customHeight="1">
+    <row r="22" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="126"/>
       <c r="C22" s="183"/>
       <c r="D22" s="6"/>
@@ -22284,7 +22278,7 @@
       <c r="AX22" s="94"/>
       <c r="AY22" s="94"/>
     </row>
-    <row r="23" spans="2:51" ht="26.1" customHeight="1">
+    <row r="23" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="126" t="s">
         <v>51</v>
       </c>
@@ -22348,7 +22342,7 @@
       <c r="AX23" s="94"/>
       <c r="AY23" s="94"/>
     </row>
-    <row r="24" spans="2:51" ht="26.1" customHeight="1">
+    <row r="24" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="126"/>
       <c r="C24" s="180"/>
       <c r="D24" s="6"/>
@@ -22407,7 +22401,7 @@
       <c r="AX24" s="94"/>
       <c r="AY24" s="94"/>
     </row>
-    <row r="25" spans="2:51" ht="26.1" customHeight="1">
+    <row r="25" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="126"/>
       <c r="C25" s="180"/>
       <c r="D25" s="6"/>
@@ -22466,7 +22460,7 @@
       <c r="AX25" s="94"/>
       <c r="AY25" s="94"/>
     </row>
-    <row r="26" spans="2:51" ht="26.1" customHeight="1">
+    <row r="26" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="126" t="s">
         <v>49</v>
       </c>
@@ -22530,7 +22524,7 @@
       <c r="AX26" s="94"/>
       <c r="AY26" s="94"/>
     </row>
-    <row r="27" spans="2:51" ht="26.1" customHeight="1">
+    <row r="27" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="126"/>
       <c r="C27" s="180"/>
       <c r="D27" s="6"/>
@@ -22589,7 +22583,7 @@
       <c r="AX27" s="94"/>
       <c r="AY27" s="94"/>
     </row>
-    <row r="28" spans="2:51" ht="26.1" customHeight="1">
+    <row r="28" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="126"/>
       <c r="C28" s="180"/>
       <c r="D28" s="6"/>
@@ -22648,7 +22642,7 @@
       <c r="AX28" s="94"/>
       <c r="AY28" s="94"/>
     </row>
-    <row r="29" spans="2:51" ht="26.1" customHeight="1">
+    <row r="29" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="126"/>
       <c r="C29" s="180"/>
       <c r="D29" s="6"/>
@@ -22707,7 +22701,7 @@
       <c r="AX29" s="94"/>
       <c r="AY29" s="94"/>
     </row>
-    <row r="30" spans="2:51" ht="26.1" customHeight="1">
+    <row r="30" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="126" t="s">
         <v>52</v>
       </c>
@@ -22763,7 +22757,7 @@
       <c r="AX30" s="94"/>
       <c r="AY30" s="94"/>
     </row>
-    <row r="31" spans="2:51" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="2:51" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="126"/>
       <c r="C31" s="183"/>
       <c r="D31" s="13"/>
@@ -22818,7 +22812,7 @@
       <c r="AX31" s="94"/>
       <c r="AY31" s="94"/>
     </row>
-    <row r="32" spans="2:51" s="18" customFormat="1" ht="6" customHeight="1">
+    <row r="32" spans="2:51" s="18" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="126"/>
       <c r="C32" s="183"/>
       <c r="D32" s="122" t="str">
@@ -22858,7 +22852,7 @@
       <c r="Z32" s="187"/>
       <c r="AA32" s="121"/>
     </row>
-    <row r="33" spans="2:31" s="18" customFormat="1" ht="9" customHeight="1">
+    <row r="33" spans="2:31" s="18" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="126"/>
       <c r="C33" s="183"/>
       <c r="D33" s="123"/>
@@ -22891,7 +22885,7 @@
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
     </row>
-    <row r="34" spans="2:31" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="2:31" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="126"/>
       <c r="C34" s="183"/>
       <c r="D34" s="15" t="s">
@@ -22932,7 +22926,7 @@
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
     </row>
-    <row r="35" spans="2:31" ht="15" customHeight="1">
+    <row r="35" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="119"/>
       <c r="C35" s="119"/>
       <c r="D35" s="119"/>
@@ -22964,7 +22958,7 @@
       <c r="Z35" s="120"/>
       <c r="AA35" s="120"/>
     </row>
-    <row r="36" spans="2:31" ht="25.5" customHeight="1">
+    <row r="36" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="E36" s="12"/>
@@ -22989,7 +22983,7 @@
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="2:31" ht="25.5" customHeight="1">
+    <row r="37" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="E37" s="12"/>
@@ -23014,7 +23008,7 @@
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="2:31" ht="25.5" customHeight="1">
+    <row r="38" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="E38" s="12"/>
@@ -23039,7 +23033,7 @@
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="2:31" ht="26.1" customHeight="1">
+    <row r="39" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="E39" s="12"/>
@@ -23064,7 +23058,7 @@
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="2:31" ht="26.1" customHeight="1">
+    <row r="40" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="E40" s="12"/>
@@ -23089,7 +23083,7 @@
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
     </row>
-    <row r="41" spans="2:31" ht="26.1" customHeight="1">
+    <row r="41" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="E41" s="12"/>
@@ -23114,7 +23108,7 @@
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="2:31" ht="26.1" customHeight="1">
+    <row r="42" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="E42" s="12"/>
@@ -23139,7 +23133,7 @@
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="2:31" ht="26.1" customHeight="1">
+    <row r="43" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="E43" s="12"/>
@@ -23164,7 +23158,7 @@
       <c r="Z43" s="12"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="2:31" ht="26.1" customHeight="1">
+    <row r="44" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="E44" s="12"/>
@@ -23189,7 +23183,7 @@
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="2:31" ht="26.1" customHeight="1">
+    <row r="45" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="E45" s="12"/>
@@ -23214,7 +23208,7 @@
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="2:31" ht="26.1" customHeight="1">
+    <row r="46" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="E46" s="12"/>
@@ -23239,7 +23233,7 @@
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="2:31" ht="26.1" customHeight="1">
+    <row r="47" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="E47" s="12"/>
@@ -23264,7 +23258,7 @@
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="2:31" ht="26.1" customHeight="1">
+    <row r="48" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="E48" s="12"/>
@@ -23289,62 +23283,62 @@
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="50" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="51" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="52" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="53" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="54" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="55" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="56" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="57" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="58" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="59" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="60" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="61" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="62" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="63" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="64" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="65" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="66" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="67" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="68" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="69" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="70" s="12" customFormat="1" ht="42.75" customHeight="1"/>
-    <row r="71" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="72" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="73" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="74" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="75" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="76" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="77" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="78" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="79" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="80" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="81" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="82" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="83" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="84" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="85" s="12" customFormat="1" ht="25.5" customHeight="1"/>
-    <row r="86" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="87" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="88" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="89" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="90" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="91" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="92" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="93" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="94" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="95" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="96" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="97" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="98" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="99" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="100" s="12" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="101" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="102" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="103" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="104" s="12" customFormat="1" ht="15" customHeight="1"/>
+    <row r="49" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="269">
     <mergeCell ref="E1:H1"/>
@@ -23635,7 +23629,7 @@
       <selection pane="bottomLeft" activeCell="I20" sqref="I20:U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.88671875" style="12" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="17" customWidth="1"/>
@@ -23664,7 +23658,7 @@
     <col min="31" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="42.9" customHeight="1">
+    <row r="1" spans="2:51" ht="42.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
@@ -23700,7 +23694,7 @@
       <c r="Z1" s="138"/>
       <c r="AA1" s="138"/>
     </row>
-    <row r="2" spans="2:51" ht="26.1" customHeight="1">
+    <row r="2" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
       <c r="E2" s="138"/>
       <c r="F2" s="138"/>
@@ -23749,7 +23743,7 @@
       <c r="AX2" s="94"/>
       <c r="AY2" s="94"/>
     </row>
-    <row r="3" spans="2:51" ht="26.1" customHeight="1">
+    <row r="3" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="6"/>
       <c r="E3" s="109" t="s">
         <v>247</v>
@@ -23806,7 +23800,7 @@
       <c r="AX3" s="94"/>
       <c r="AY3" s="94"/>
     </row>
-    <row r="4" spans="2:51" ht="26.1" customHeight="1">
+    <row r="4" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
       <c r="E4" s="138" t="s">
         <v>248</v>
@@ -23863,7 +23857,7 @@
       <c r="AX4" s="94"/>
       <c r="AY4" s="94"/>
     </row>
-    <row r="5" spans="2:51" ht="26.1" customHeight="1">
+    <row r="5" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="E5" s="109" t="s">
         <v>249</v>
@@ -23920,7 +23914,7 @@
       <c r="AX5" s="94"/>
       <c r="AY5" s="94"/>
     </row>
-    <row r="6" spans="2:51" ht="26.1" customHeight="1">
+    <row r="6" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="6"/>
       <c r="E6" s="109" t="s">
         <v>250</v>
@@ -23977,7 +23971,7 @@
       <c r="AX6" s="94"/>
       <c r="AY6" s="94"/>
     </row>
-    <row r="7" spans="2:51" ht="26.1" customHeight="1">
+    <row r="7" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="6"/>
       <c r="E7" s="109" t="s">
         <v>252</v>
@@ -24034,7 +24028,7 @@
       <c r="AX7" s="94"/>
       <c r="AY7" s="94"/>
     </row>
-    <row r="8" spans="2:51" ht="26.1" customHeight="1">
+    <row r="8" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="6"/>
       <c r="E8" s="109"/>
       <c r="F8" s="110"/>
@@ -24083,7 +24077,7 @@
       <c r="AX8" s="94"/>
       <c r="AY8" s="94"/>
     </row>
-    <row r="9" spans="2:51" ht="26.1" customHeight="1">
+    <row r="9" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
       <c r="E9" s="181"/>
       <c r="F9" s="181"/>
@@ -24132,7 +24126,7 @@
       <c r="AX9" s="94"/>
       <c r="AY9" s="94"/>
     </row>
-    <row r="10" spans="2:51" ht="26.1" customHeight="1">
+    <row r="10" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="109"/>
       <c r="F10" s="110"/>
@@ -24181,7 +24175,7 @@
       <c r="AX10" s="94"/>
       <c r="AY10" s="94"/>
     </row>
-    <row r="11" spans="2:51" ht="26.1" customHeight="1">
+    <row r="11" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
       <c r="E11" s="109"/>
       <c r="F11" s="110"/>
@@ -24232,7 +24226,7 @@
       <c r="AX11" s="94"/>
       <c r="AY11" s="94"/>
     </row>
-    <row r="12" spans="2:51" ht="26.1" customHeight="1">
+    <row r="12" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="E12" s="109"/>
       <c r="F12" s="110"/>
@@ -24281,7 +24275,7 @@
       <c r="AX12" s="94"/>
       <c r="AY12" s="94"/>
     </row>
-    <row r="13" spans="2:51" ht="26.1" customHeight="1">
+    <row r="13" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="109" t="s">
         <v>255</v>
@@ -24338,7 +24332,7 @@
       <c r="AX13" s="94"/>
       <c r="AY13" s="94"/>
     </row>
-    <row r="14" spans="2:51" ht="26.1" customHeight="1">
+    <row r="14" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
       <c r="E14" s="109" t="s">
         <v>256</v>
@@ -24395,7 +24389,7 @@
       <c r="AX14" s="94"/>
       <c r="AY14" s="94"/>
     </row>
-    <row r="15" spans="2:51" ht="26.1" customHeight="1">
+    <row r="15" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="109" t="s">
         <v>257</v>
@@ -24452,7 +24446,7 @@
       <c r="AX15" s="94"/>
       <c r="AY15" s="94"/>
     </row>
-    <row r="16" spans="2:51" ht="26.1" customHeight="1">
+    <row r="16" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="126" t="s">
         <v>49</v>
       </c>
@@ -24516,7 +24510,7 @@
       <c r="AX16" s="94"/>
       <c r="AY16" s="94"/>
     </row>
-    <row r="17" spans="2:51" ht="26.1" customHeight="1">
+    <row r="17" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="126"/>
       <c r="C17" s="180"/>
       <c r="D17" s="6"/>
@@ -24575,7 +24569,7 @@
       <c r="AX17" s="94"/>
       <c r="AY17" s="94"/>
     </row>
-    <row r="18" spans="2:51" ht="26.1" customHeight="1">
+    <row r="18" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="126"/>
       <c r="C18" s="180"/>
       <c r="D18" s="6"/>
@@ -24634,7 +24628,7 @@
       <c r="AX18" s="94"/>
       <c r="AY18" s="94"/>
     </row>
-    <row r="19" spans="2:51" ht="26.1" customHeight="1">
+    <row r="19" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="126"/>
       <c r="C19" s="180"/>
       <c r="D19" s="6"/>
@@ -24693,7 +24687,7 @@
       <c r="AX19" s="94"/>
       <c r="AY19" s="94"/>
     </row>
-    <row r="20" spans="2:51" ht="26.1" customHeight="1">
+    <row r="20" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="126" t="s">
         <v>50</v>
       </c>
@@ -24749,7 +24743,7 @@
       <c r="AX20" s="94"/>
       <c r="AY20" s="94"/>
     </row>
-    <row r="21" spans="2:51" ht="26.1" customHeight="1">
+    <row r="21" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="126"/>
       <c r="C21" s="183"/>
       <c r="D21" s="6"/>
@@ -24800,7 +24794,7 @@
       <c r="AX21" s="94"/>
       <c r="AY21" s="94"/>
     </row>
-    <row r="22" spans="2:51" ht="26.1" customHeight="1">
+    <row r="22" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="126"/>
       <c r="C22" s="183"/>
       <c r="D22" s="6"/>
@@ -24853,7 +24847,7 @@
       <c r="AX22" s="94"/>
       <c r="AY22" s="94"/>
     </row>
-    <row r="23" spans="2:51" ht="26.1" customHeight="1">
+    <row r="23" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="126" t="s">
         <v>51</v>
       </c>
@@ -24917,7 +24911,7 @@
       <c r="AX23" s="94"/>
       <c r="AY23" s="94"/>
     </row>
-    <row r="24" spans="2:51" ht="26.1" customHeight="1">
+    <row r="24" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="126"/>
       <c r="C24" s="180"/>
       <c r="D24" s="6"/>
@@ -24970,7 +24964,7 @@
       <c r="AX24" s="94"/>
       <c r="AY24" s="94"/>
     </row>
-    <row r="25" spans="2:51" ht="26.1" customHeight="1">
+    <row r="25" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="126"/>
       <c r="C25" s="180"/>
       <c r="D25" s="6"/>
@@ -25029,7 +25023,7 @@
       <c r="AX25" s="94"/>
       <c r="AY25" s="94"/>
     </row>
-    <row r="26" spans="2:51" ht="26.1" customHeight="1">
+    <row r="26" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="126" t="s">
         <v>49</v>
       </c>
@@ -25093,7 +25087,7 @@
       <c r="AX26" s="94"/>
       <c r="AY26" s="94"/>
     </row>
-    <row r="27" spans="2:51" ht="26.1" customHeight="1">
+    <row r="27" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="126"/>
       <c r="C27" s="180"/>
       <c r="D27" s="6"/>
@@ -25146,7 +25140,7 @@
       <c r="AX27" s="94"/>
       <c r="AY27" s="94"/>
     </row>
-    <row r="28" spans="2:51" ht="26.1" customHeight="1">
+    <row r="28" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="126"/>
       <c r="C28" s="180"/>
       <c r="D28" s="6"/>
@@ -25197,7 +25191,7 @@
       <c r="AX28" s="94"/>
       <c r="AY28" s="94"/>
     </row>
-    <row r="29" spans="2:51" ht="26.1" customHeight="1">
+    <row r="29" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="126"/>
       <c r="C29" s="180"/>
       <c r="D29" s="6"/>
@@ -25248,7 +25242,7 @@
       <c r="AX29" s="94"/>
       <c r="AY29" s="94"/>
     </row>
-    <row r="30" spans="2:51" ht="26.1" customHeight="1">
+    <row r="30" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="126" t="s">
         <v>52</v>
       </c>
@@ -25304,7 +25298,7 @@
       <c r="AX30" s="94"/>
       <c r="AY30" s="94"/>
     </row>
-    <row r="31" spans="2:51" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="2:51" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="126"/>
       <c r="C31" s="183"/>
       <c r="D31" s="13"/>
@@ -25359,7 +25353,7 @@
       <c r="AX31" s="94"/>
       <c r="AY31" s="94"/>
     </row>
-    <row r="32" spans="2:51" s="18" customFormat="1" ht="6" customHeight="1">
+    <row r="32" spans="2:51" s="18" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="126"/>
       <c r="C32" s="183"/>
       <c r="D32" s="122" t="str">
@@ -25399,7 +25393,7 @@
       <c r="Z32" s="187"/>
       <c r="AA32" s="121"/>
     </row>
-    <row r="33" spans="2:31" s="18" customFormat="1" ht="9" customHeight="1">
+    <row r="33" spans="2:31" s="18" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="126"/>
       <c r="C33" s="183"/>
       <c r="D33" s="123"/>
@@ -25432,7 +25426,7 @@
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
     </row>
-    <row r="34" spans="2:31" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="2:31" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="126"/>
       <c r="C34" s="183"/>
       <c r="D34" s="15" t="s">
@@ -25473,7 +25467,7 @@
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
     </row>
-    <row r="35" spans="2:31" ht="15" customHeight="1">
+    <row r="35" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="119"/>
       <c r="C35" s="119"/>
       <c r="D35" s="119"/>
@@ -25505,7 +25499,7 @@
       <c r="Z35" s="120"/>
       <c r="AA35" s="120"/>
     </row>
-    <row r="36" spans="2:31" ht="25.5" customHeight="1">
+    <row r="36" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="E36" s="12"/>
@@ -25530,7 +25524,7 @@
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="2:31" ht="25.5" customHeight="1">
+    <row r="37" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="E37" s="12"/>
@@ -25555,7 +25549,7 @@
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="2:31" ht="25.5" customHeight="1">
+    <row r="38" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="E38" s="12"/>
@@ -25580,7 +25574,7 @@
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="2:31" ht="26.1" customHeight="1">
+    <row r="39" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="E39" s="12"/>
@@ -25605,7 +25599,7 @@
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="2:31" ht="26.1" customHeight="1">
+    <row r="40" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="E40" s="12"/>
@@ -25630,7 +25624,7 @@
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
     </row>
-    <row r="41" spans="2:31" ht="26.1" customHeight="1">
+    <row r="41" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="E41" s="12"/>
@@ -25655,7 +25649,7 @@
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="2:31" ht="26.1" customHeight="1">
+    <row r="42" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="E42" s="12"/>
@@ -25680,7 +25674,7 @@
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="2:31" ht="26.1" customHeight="1">
+    <row r="43" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="E43" s="12"/>
@@ -25705,7 +25699,7 @@
       <c r="Z43" s="12"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="2:31" ht="26.1" customHeight="1">
+    <row r="44" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="E44" s="12"/>
@@ -25730,7 +25724,7 @@
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="2:31" ht="26.1" customHeight="1">
+    <row r="45" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="E45" s="12"/>
@@ -25755,7 +25749,7 @@
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="2:31" ht="26.1" customHeight="1">
+    <row r="46" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="E46" s="12"/>
@@ -25780,7 +25774,7 @@
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="2:31" ht="26.1" customHeight="1">
+    <row r="47" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="E47" s="12"/>
@@ -25805,7 +25799,7 @@
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="2:31" ht="26.1" customHeight="1">
+    <row r="48" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="E48" s="12"/>
@@ -25830,62 +25824,62 @@
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="50" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="51" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="52" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="53" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="54" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="55" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="56" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="57" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="58" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="59" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="60" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="61" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="62" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="63" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="64" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="65" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="66" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="67" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="68" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="69" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="70" s="12" customFormat="1" ht="42.75" customHeight="1"/>
-    <row r="71" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="72" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="73" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="74" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="75" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="76" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="77" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="78" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="79" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="80" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="81" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="82" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="83" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="84" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="85" s="12" customFormat="1" ht="25.5" customHeight="1"/>
-    <row r="86" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="87" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="88" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="89" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="90" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="91" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="92" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="93" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="94" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="95" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="96" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="97" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="98" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="99" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="100" s="12" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="101" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="102" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="103" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="104" s="12" customFormat="1" ht="15" customHeight="1"/>
+    <row r="49" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="269">
     <mergeCell ref="E1:H1"/>
@@ -26170,13 +26164,13 @@
   </sheetPr>
   <dimension ref="B1:AY104"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC23" sqref="AC23:AF23"/>
       <selection pane="bottomLeft" activeCell="I15" sqref="I15:U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.88671875" style="12" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="17" customWidth="1"/>
@@ -26205,7 +26199,7 @@
     <col min="31" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="42.9" customHeight="1">
+    <row r="1" spans="2:51" ht="42.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
@@ -26241,7 +26235,7 @@
       <c r="Z1" s="138"/>
       <c r="AA1" s="138"/>
     </row>
-    <row r="2" spans="2:51" ht="26.1" customHeight="1">
+    <row r="2" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
       <c r="E2" s="138"/>
       <c r="F2" s="138"/>
@@ -26290,7 +26284,7 @@
       <c r="AX2" s="94"/>
       <c r="AY2" s="94"/>
     </row>
-    <row r="3" spans="2:51" ht="26.1" customHeight="1">
+    <row r="3" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="6"/>
       <c r="E3" s="109"/>
       <c r="F3" s="110"/>
@@ -26341,7 +26335,7 @@
       <c r="AX3" s="94"/>
       <c r="AY3" s="94"/>
     </row>
-    <row r="4" spans="2:51" ht="26.1" customHeight="1">
+    <row r="4" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
       <c r="E4" s="109"/>
       <c r="F4" s="110"/>
@@ -26390,7 +26384,7 @@
       <c r="AX4" s="94"/>
       <c r="AY4" s="94"/>
     </row>
-    <row r="5" spans="2:51" ht="26.1" customHeight="1">
+    <row r="5" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="E5" s="109" t="s">
         <v>138</v>
@@ -26447,7 +26441,7 @@
       <c r="AX5" s="94"/>
       <c r="AY5" s="94"/>
     </row>
-    <row r="6" spans="2:51" ht="26.1" customHeight="1">
+    <row r="6" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="6"/>
       <c r="E6" s="109" t="s">
         <v>267</v>
@@ -26504,7 +26498,7 @@
       <c r="AX6" s="94"/>
       <c r="AY6" s="94"/>
     </row>
-    <row r="7" spans="2:51" ht="26.1" customHeight="1">
+    <row r="7" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="6"/>
       <c r="E7" s="109" t="s">
         <v>140</v>
@@ -26561,7 +26555,7 @@
       <c r="AX7" s="94"/>
       <c r="AY7" s="94"/>
     </row>
-    <row r="8" spans="2:51" ht="26.1" customHeight="1">
+    <row r="8" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="6"/>
       <c r="E8" s="109" t="s">
         <v>141</v>
@@ -26618,7 +26612,7 @@
       <c r="AX8" s="94"/>
       <c r="AY8" s="94"/>
     </row>
-    <row r="9" spans="2:51" ht="26.1" customHeight="1">
+    <row r="9" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
       <c r="E9" s="109" t="s">
         <v>142</v>
@@ -26675,7 +26669,7 @@
       <c r="AX9" s="94"/>
       <c r="AY9" s="94"/>
     </row>
-    <row r="10" spans="2:51" ht="26.1" customHeight="1">
+    <row r="10" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="109" t="s">
         <v>144</v>
@@ -26732,7 +26726,7 @@
       <c r="AX10" s="94"/>
       <c r="AY10" s="94"/>
     </row>
-    <row r="11" spans="2:51" ht="26.1" customHeight="1">
+    <row r="11" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
       <c r="E11" s="109" t="s">
         <v>268</v>
@@ -26789,7 +26783,7 @@
       <c r="AX11" s="94"/>
       <c r="AY11" s="94"/>
     </row>
-    <row r="12" spans="2:51" ht="26.1" customHeight="1">
+    <row r="12" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="E12" s="109" t="s">
         <v>277</v>
@@ -26846,7 +26840,7 @@
       <c r="AX12" s="94"/>
       <c r="AY12" s="94"/>
     </row>
-    <row r="13" spans="2:51" ht="26.1" customHeight="1">
+    <row r="13" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="109"/>
       <c r="F13" s="110"/>
@@ -26897,7 +26891,7 @@
       <c r="AX13" s="94"/>
       <c r="AY13" s="94"/>
     </row>
-    <row r="14" spans="2:51" ht="26.1" customHeight="1">
+    <row r="14" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
       <c r="E14" s="109"/>
       <c r="F14" s="110"/>
@@ -26946,7 +26940,7 @@
       <c r="AX14" s="94"/>
       <c r="AY14" s="94"/>
     </row>
-    <row r="15" spans="2:51" ht="26.1" customHeight="1">
+    <row r="15" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="109"/>
       <c r="F15" s="110"/>
@@ -26995,7 +26989,7 @@
       <c r="AX15" s="94"/>
       <c r="AY15" s="94"/>
     </row>
-    <row r="16" spans="2:51" ht="26.1" customHeight="1">
+    <row r="16" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="126" t="s">
         <v>49</v>
       </c>
@@ -27051,7 +27045,7 @@
       <c r="AX16" s="94"/>
       <c r="AY16" s="94"/>
     </row>
-    <row r="17" spans="2:51" ht="26.1" customHeight="1">
+    <row r="17" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="126"/>
       <c r="C17" s="180"/>
       <c r="D17" s="6"/>
@@ -27102,7 +27096,7 @@
       <c r="AX17" s="94"/>
       <c r="AY17" s="94"/>
     </row>
-    <row r="18" spans="2:51" ht="26.1" customHeight="1">
+    <row r="18" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="126"/>
       <c r="C18" s="180"/>
       <c r="D18" s="6"/>
@@ -27153,7 +27147,7 @@
       <c r="AX18" s="94"/>
       <c r="AY18" s="94"/>
     </row>
-    <row r="19" spans="2:51" ht="26.1" customHeight="1">
+    <row r="19" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="126"/>
       <c r="C19" s="180"/>
       <c r="D19" s="6"/>
@@ -27204,7 +27198,7 @@
       <c r="AX19" s="94"/>
       <c r="AY19" s="94"/>
     </row>
-    <row r="20" spans="2:51" ht="26.1" customHeight="1">
+    <row r="20" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="126" t="s">
         <v>50</v>
       </c>
@@ -27260,7 +27254,7 @@
       <c r="AX20" s="94"/>
       <c r="AY20" s="94"/>
     </row>
-    <row r="21" spans="2:51" ht="26.1" customHeight="1">
+    <row r="21" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="126"/>
       <c r="C21" s="183"/>
       <c r="D21" s="6"/>
@@ -27311,7 +27305,7 @@
       <c r="AX21" s="94"/>
       <c r="AY21" s="94"/>
     </row>
-    <row r="22" spans="2:51" ht="26.1" customHeight="1">
+    <row r="22" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="126"/>
       <c r="C22" s="183"/>
       <c r="D22" s="6"/>
@@ -27362,7 +27356,7 @@
       <c r="AX22" s="94"/>
       <c r="AY22" s="94"/>
     </row>
-    <row r="23" spans="2:51" ht="26.1" customHeight="1">
+    <row r="23" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="126" t="s">
         <v>51</v>
       </c>
@@ -27418,7 +27412,7 @@
       <c r="AX23" s="94"/>
       <c r="AY23" s="94"/>
     </row>
-    <row r="24" spans="2:51" ht="26.1" customHeight="1">
+    <row r="24" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="126"/>
       <c r="C24" s="180"/>
       <c r="D24" s="6"/>
@@ -27469,7 +27463,7 @@
       <c r="AX24" s="94"/>
       <c r="AY24" s="94"/>
     </row>
-    <row r="25" spans="2:51" ht="26.1" customHeight="1">
+    <row r="25" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="126"/>
       <c r="C25" s="180"/>
       <c r="D25" s="6"/>
@@ -27520,7 +27514,7 @@
       <c r="AX25" s="94"/>
       <c r="AY25" s="94"/>
     </row>
-    <row r="26" spans="2:51" ht="26.1" customHeight="1">
+    <row r="26" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="126" t="s">
         <v>49</v>
       </c>
@@ -27576,7 +27570,7 @@
       <c r="AX26" s="94"/>
       <c r="AY26" s="94"/>
     </row>
-    <row r="27" spans="2:51" ht="26.1" customHeight="1">
+    <row r="27" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="126"/>
       <c r="C27" s="180"/>
       <c r="D27" s="6"/>
@@ -27627,7 +27621,7 @@
       <c r="AX27" s="94"/>
       <c r="AY27" s="94"/>
     </row>
-    <row r="28" spans="2:51" ht="26.1" customHeight="1">
+    <row r="28" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="126"/>
       <c r="C28" s="180"/>
       <c r="D28" s="6"/>
@@ -27678,7 +27672,7 @@
       <c r="AX28" s="94"/>
       <c r="AY28" s="94"/>
     </row>
-    <row r="29" spans="2:51" ht="26.1" customHeight="1">
+    <row r="29" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="126"/>
       <c r="C29" s="180"/>
       <c r="D29" s="6"/>
@@ -27729,7 +27723,7 @@
       <c r="AX29" s="94"/>
       <c r="AY29" s="94"/>
     </row>
-    <row r="30" spans="2:51" ht="26.1" customHeight="1">
+    <row r="30" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="126" t="s">
         <v>52</v>
       </c>
@@ -27785,7 +27779,7 @@
       <c r="AX30" s="94"/>
       <c r="AY30" s="94"/>
     </row>
-    <row r="31" spans="2:51" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="2:51" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="126"/>
       <c r="C31" s="183"/>
       <c r="D31" s="13"/>
@@ -27840,7 +27834,7 @@
       <c r="AX31" s="94"/>
       <c r="AY31" s="94"/>
     </row>
-    <row r="32" spans="2:51" s="18" customFormat="1" ht="6" customHeight="1">
+    <row r="32" spans="2:51" s="18" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="126"/>
       <c r="C32" s="183"/>
       <c r="D32" s="122" t="str">
@@ -27880,7 +27874,7 @@
       <c r="Z32" s="187"/>
       <c r="AA32" s="121"/>
     </row>
-    <row r="33" spans="2:31" s="18" customFormat="1" ht="9" customHeight="1">
+    <row r="33" spans="2:31" s="18" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="126"/>
       <c r="C33" s="183"/>
       <c r="D33" s="123"/>
@@ -27913,7 +27907,7 @@
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
     </row>
-    <row r="34" spans="2:31" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="2:31" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="126"/>
       <c r="C34" s="183"/>
       <c r="D34" s="15" t="s">
@@ -27954,7 +27948,7 @@
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
     </row>
-    <row r="35" spans="2:31" ht="15" customHeight="1">
+    <row r="35" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="119"/>
       <c r="C35" s="119"/>
       <c r="D35" s="119"/>
@@ -27986,7 +27980,7 @@
       <c r="Z35" s="120"/>
       <c r="AA35" s="120"/>
     </row>
-    <row r="36" spans="2:31" ht="25.5" customHeight="1">
+    <row r="36" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="E36" s="12"/>
@@ -28011,7 +28005,7 @@
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="2:31" ht="25.5" customHeight="1">
+    <row r="37" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="E37" s="12"/>
@@ -28036,7 +28030,7 @@
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="2:31" ht="25.5" customHeight="1">
+    <row r="38" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="E38" s="12"/>
@@ -28061,7 +28055,7 @@
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="2:31" ht="26.1" customHeight="1">
+    <row r="39" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="E39" s="12"/>
@@ -28086,7 +28080,7 @@
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="2:31" ht="26.1" customHeight="1">
+    <row r="40" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="E40" s="12"/>
@@ -28111,7 +28105,7 @@
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
     </row>
-    <row r="41" spans="2:31" ht="26.1" customHeight="1">
+    <row r="41" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="E41" s="12"/>
@@ -28136,7 +28130,7 @@
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="2:31" ht="26.1" customHeight="1">
+    <row r="42" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="E42" s="12"/>
@@ -28161,7 +28155,7 @@
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="2:31" ht="26.1" customHeight="1">
+    <row r="43" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="E43" s="12"/>
@@ -28186,7 +28180,7 @@
       <c r="Z43" s="12"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="2:31" ht="26.1" customHeight="1">
+    <row r="44" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="E44" s="12"/>
@@ -28211,7 +28205,7 @@
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="2:31" ht="26.1" customHeight="1">
+    <row r="45" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="E45" s="12"/>
@@ -28236,7 +28230,7 @@
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="2:31" ht="26.1" customHeight="1">
+    <row r="46" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="E46" s="12"/>
@@ -28261,7 +28255,7 @@
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="2:31" ht="26.1" customHeight="1">
+    <row r="47" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="E47" s="12"/>
@@ -28286,7 +28280,7 @@
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="2:31" ht="26.1" customHeight="1">
+    <row r="48" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="E48" s="12"/>
@@ -28311,62 +28305,62 @@
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="50" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="51" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="52" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="53" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="54" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="55" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="56" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="57" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="58" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="59" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="60" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="61" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="62" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="63" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="64" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="65" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="66" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="67" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="68" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="69" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="70" s="12" customFormat="1" ht="42.75" customHeight="1"/>
-    <row r="71" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="72" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="73" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="74" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="75" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="76" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="77" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="78" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="79" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="80" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="81" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="82" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="83" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="84" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="85" s="12" customFormat="1" ht="25.5" customHeight="1"/>
-    <row r="86" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="87" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="88" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="89" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="90" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="91" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="92" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="93" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="94" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="95" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="96" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="97" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="98" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="99" s="12" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="100" s="12" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="101" s="12" customFormat="1" ht="6" customHeight="1"/>
-    <row r="102" s="12" customFormat="1" ht="9" customHeight="1"/>
-    <row r="103" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="104" s="12" customFormat="1" ht="15" customHeight="1"/>
+    <row r="49" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="268">
     <mergeCell ref="E1:H1"/>
